--- a/Analysis/US-2015/NCSS - US [2015] (Strict).wct.xlsx
+++ b/Analysis/US-2015/NCSS - US [2015] (Strict).wct.xlsx
@@ -344,423 +344,423 @@
     <t>ATTRIBUTION</t>
   </si>
   <si>
+    <t>CPFS</t>
+  </si>
+  <si>
+    <t>CYBERCAPABILITIES</t>
+  </si>
+  <si>
+    <t>CYBEREFFECTS</t>
+  </si>
+  <si>
+    <t>CYBERREQPLAN</t>
+  </si>
+  <si>
+    <t>CYBERTOOLS</t>
+  </si>
+  <si>
+    <t>CYBERWARFARE</t>
+  </si>
+  <si>
+    <t>CYBERWORKGROUP</t>
+  </si>
+  <si>
+    <t>DETECTION</t>
+  </si>
+  <si>
+    <t>ENCRYPTION</t>
+  </si>
+  <si>
+    <t>FORENSICS</t>
+  </si>
+  <si>
+    <t>PREVENTION</t>
+  </si>
+  <si>
+    <t>UNDERSTAND</t>
+  </si>
+  <si>
+    <t>BEHAVIOUR</t>
+  </si>
+  <si>
+    <t>CYBEREDUCATION</t>
+  </si>
+  <si>
+    <t>CYBERTRAINING</t>
+  </si>
+  <si>
+    <t>EXCHANGE</t>
+  </si>
+  <si>
+    <t>EXERCISES</t>
+  </si>
+  <si>
+    <t>LESSONSLEARNED</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>BIGDATA</t>
+  </si>
+  <si>
+    <t>CYBERRESEARCH</t>
+  </si>
+  <si>
+    <t>DARPA</t>
+  </si>
+  <si>
+    <t>5EYES</t>
+  </si>
+  <si>
+    <t>CYBERINTEL</t>
+  </si>
+  <si>
+    <t>INTELAGENCIES</t>
+  </si>
+  <si>
+    <t>INTELCAPABIL</t>
+  </si>
+  <si>
+    <t>MONITOR</t>
+  </si>
+  <si>
+    <t>CULTURE</t>
+  </si>
+  <si>
+    <t>ECONOMICSECURITY</t>
+  </si>
+  <si>
+    <t>NSS</t>
+  </si>
+  <si>
+    <t>PROTECTECONOMY</t>
+  </si>
+  <si>
+    <t>ENTERPRISES</t>
+  </si>
+  <si>
+    <t>INTEROPERABLE</t>
+  </si>
+  <si>
+    <t>SERVICES</t>
+  </si>
+  <si>
+    <t>FREEDOM</t>
+  </si>
+  <si>
+    <t>PRIVACY</t>
+  </si>
+  <si>
+    <t>CYBERCRIME</t>
+  </si>
+  <si>
+    <t>CYBERENABLED</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>THEFT</t>
+  </si>
+  <si>
+    <t>INFLUENCE</t>
+  </si>
+  <si>
+    <t>INTELPROP</t>
+  </si>
+  <si>
+    <t>CYBERESPIONAGE</t>
+  </si>
+  <si>
+    <t>ESPIONAGE</t>
+  </si>
+  <si>
+    <t>0-DAY</t>
+  </si>
+  <si>
+    <t>CIATRIAD</t>
+  </si>
+  <si>
+    <t>CYBERACTIVITIES</t>
+  </si>
+  <si>
+    <t>CYBERATTACKS</t>
+  </si>
+  <si>
+    <t>CYBEREVENT</t>
+  </si>
+  <si>
+    <t>CYBERISSUES</t>
+  </si>
+  <si>
+    <t>CYBERMISSION</t>
+  </si>
+  <si>
+    <t>CYBERRISK</t>
+  </si>
+  <si>
+    <t>CYBERTHREATS</t>
+  </si>
+  <si>
+    <t>HARM</t>
+  </si>
+  <si>
+    <t>HEALTHCARE</t>
+  </si>
+  <si>
+    <t>MALSOFTWARE</t>
+  </si>
+  <si>
+    <t>RISKS</t>
+  </si>
+  <si>
+    <t>VULNERABILITIES</t>
+  </si>
+  <si>
+    <t>CYBERACTORS</t>
+  </si>
+  <si>
+    <t>CYBERADVERSARIES</t>
+  </si>
+  <si>
+    <t>INTRUDER</t>
+  </si>
+  <si>
+    <t>MALINSIDER</t>
+  </si>
+  <si>
+    <t>PATRIOTIC</t>
+  </si>
+  <si>
+    <t>PROXY</t>
+  </si>
+  <si>
+    <t>ADVERSARY</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>NORTHKOREA</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>ACCELERATE</t>
+  </si>
+  <si>
+    <t>ADVANCE</t>
+  </si>
+  <si>
+    <t>ASSIST</t>
+  </si>
+  <si>
+    <t>BUILD</t>
+  </si>
+  <si>
+    <t>CONDUCT</t>
+  </si>
+  <si>
+    <t>COORDINATE</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>DEVELOP</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>ENCOURAGE</t>
+  </si>
+  <si>
+    <t>ENHANCE</t>
+  </si>
+  <si>
+    <t>ENSURE</t>
+  </si>
+  <si>
+    <t>ESTABLISHED</t>
+  </si>
+  <si>
+    <t>EXPAND</t>
+  </si>
+  <si>
+    <t>FOSTER</t>
+  </si>
+  <si>
+    <t>IMPROVE</t>
+  </si>
+  <si>
+    <t>INCREASE</t>
+  </si>
+  <si>
+    <t>OVERSIGHT</t>
+  </si>
+  <si>
+    <t>PARTICIPATE</t>
+  </si>
+  <si>
+    <t>PRIORITISE</t>
+  </si>
+  <si>
+    <t>PROMOTE</t>
+  </si>
+  <si>
+    <t>PROPOSE</t>
+  </si>
+  <si>
+    <t>PROTECT</t>
+  </si>
+  <si>
+    <t>PROVIDE</t>
+  </si>
+  <si>
+    <t>RAISE</t>
+  </si>
+  <si>
+    <t>RECCOMEND</t>
+  </si>
+  <si>
+    <t>REDUCE</t>
+  </si>
+  <si>
+    <t>STRENGTHEN</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
+  </si>
+  <si>
+    <t>ALLOCATION</t>
+  </si>
+  <si>
+    <t>BUDGETARYMNGT</t>
+  </si>
+  <si>
+    <t>CIMB</t>
+  </si>
+  <si>
+    <t>INVEST</t>
+  </si>
+  <si>
+    <t>CYBEREXPERTISE</t>
+  </si>
+  <si>
+    <t>CYBERFORCE</t>
+  </si>
+  <si>
+    <t>CYBERPRACT</t>
+  </si>
+  <si>
+    <t>CYBERPROS</t>
+  </si>
+  <si>
+    <t>RECRUITMENT</t>
+  </si>
+  <si>
+    <t>RETENTION</t>
+  </si>
+  <si>
+    <t>TECHNICAL</t>
+  </si>
+  <si>
+    <t>ASOC</t>
+  </si>
+  <si>
+    <t>CMF</t>
+  </si>
+  <si>
+    <t>MIP</t>
+  </si>
+  <si>
+    <t>OFFENSIVECAPABILITIES</t>
+  </si>
+  <si>
+    <t>OPTIONSPLAN</t>
+  </si>
+  <si>
+    <t>RETALIATION</t>
+  </si>
+  <si>
+    <t>AIRFORCE</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>CYBERCOM</t>
+  </si>
+  <si>
+    <t>CYBERDEF</t>
+  </si>
+  <si>
+    <t>DEFEND</t>
+  </si>
+  <si>
+    <t>DEFSYS</t>
+  </si>
+  <si>
+    <t>DOD</t>
+  </si>
+  <si>
+    <t>ENGAGE</t>
+  </si>
+  <si>
+    <t>JFHQ</t>
+  </si>
+  <si>
+    <t>MILITARY</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>NMF</t>
+  </si>
+  <si>
+    <t>RESPOND</t>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+  </si>
+  <si>
+    <t>USCYBERCOM</t>
+  </si>
+  <si>
+    <t>DENIAL</t>
+  </si>
+  <si>
+    <t>DETERRENCE</t>
+  </si>
+  <si>
+    <t>ACQUISITION</t>
+  </si>
+  <si>
+    <t>CYBERMARKET</t>
+  </si>
+  <si>
+    <t>EXPORT</t>
+  </si>
+  <si>
+    <t>DEFENSIVECAPABILITIES</t>
+  </si>
+  <si>
+    <t>ECONSANCTION</t>
+  </si>
+  <si>
     <t>CERT-CSIRT</t>
   </si>
   <si>
-    <t>CPFS</t>
-  </si>
-  <si>
-    <t>CYBERCAPABILITIES</t>
-  </si>
-  <si>
-    <t>CYBEREFFECTS</t>
-  </si>
-  <si>
-    <t>CYBERREQPLAN</t>
-  </si>
-  <si>
-    <t>CYBERTOOLS</t>
-  </si>
-  <si>
-    <t>CYBERWARFARE</t>
-  </si>
-  <si>
-    <t>CYBERWORKGROUP</t>
-  </si>
-  <si>
-    <t>DETECTION</t>
-  </si>
-  <si>
-    <t>ENCRYPTION</t>
-  </si>
-  <si>
-    <t>FORENSICS</t>
-  </si>
-  <si>
-    <t>PREVENTION</t>
-  </si>
-  <si>
-    <t>UNDERSTAND</t>
-  </si>
-  <si>
-    <t>BEHAVIOUR</t>
-  </si>
-  <si>
-    <t>CYBEREDUCATION</t>
-  </si>
-  <si>
-    <t>CYBERTRAINING</t>
-  </si>
-  <si>
-    <t>EXCHANGE</t>
-  </si>
-  <si>
-    <t>EXERCISES</t>
-  </si>
-  <si>
-    <t>LESSONSLEARNED</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BIGDATA</t>
-  </si>
-  <si>
-    <t>CYBERRESEARCH</t>
-  </si>
-  <si>
-    <t>DARPA</t>
-  </si>
-  <si>
-    <t>5EYES</t>
-  </si>
-  <si>
-    <t>CYBERINTEL</t>
-  </si>
-  <si>
-    <t>INTELAGENCIES</t>
-  </si>
-  <si>
-    <t>INTELCAPABIL</t>
-  </si>
-  <si>
-    <t>MONITOR</t>
-  </si>
-  <si>
-    <t>CULTURE</t>
-  </si>
-  <si>
-    <t>ECONOMICSECURITY</t>
-  </si>
-  <si>
-    <t>NSS</t>
-  </si>
-  <si>
-    <t>PROTECTECONOMY</t>
-  </si>
-  <si>
-    <t>ENTERPRISES</t>
-  </si>
-  <si>
-    <t>INTEROPERABLE</t>
-  </si>
-  <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
-    <t>FREEDOM</t>
-  </si>
-  <si>
-    <t>PRIVACY</t>
-  </si>
-  <si>
-    <t>CYBERCRIME</t>
-  </si>
-  <si>
-    <t>CYBERENABLED</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>THEFT</t>
-  </si>
-  <si>
-    <t>INFLUENCE</t>
-  </si>
-  <si>
-    <t>INTELPROP</t>
-  </si>
-  <si>
-    <t>CYBERESPIONAGE</t>
-  </si>
-  <si>
-    <t>ESPIONAGE</t>
-  </si>
-  <si>
-    <t>0-DAY</t>
-  </si>
-  <si>
-    <t>CIATRIAD</t>
-  </si>
-  <si>
-    <t>CYBERACTIVITIES</t>
-  </si>
-  <si>
-    <t>CYBERATTACKS</t>
-  </si>
-  <si>
-    <t>CYBEREVENT</t>
-  </si>
-  <si>
-    <t>CYBERISSUES</t>
-  </si>
-  <si>
-    <t>CYBERMISSION</t>
-  </si>
-  <si>
-    <t>CYBERRISK</t>
-  </si>
-  <si>
-    <t>CYBERTHREATS</t>
-  </si>
-  <si>
-    <t>HARM</t>
-  </si>
-  <si>
-    <t>HEALTHCARE</t>
-  </si>
-  <si>
-    <t>MALSOFTWARE</t>
-  </si>
-  <si>
-    <t>RISKS</t>
-  </si>
-  <si>
-    <t>VULNERABILITIES</t>
-  </si>
-  <si>
-    <t>CYBERACTORS</t>
-  </si>
-  <si>
-    <t>CYBERADVERSARIES</t>
-  </si>
-  <si>
-    <t>INTRUDER</t>
-  </si>
-  <si>
-    <t>MALINSIDER</t>
-  </si>
-  <si>
-    <t>PATRIOTIC</t>
-  </si>
-  <si>
-    <t>PROXY</t>
-  </si>
-  <si>
-    <t>ADVERSARY</t>
-  </si>
-  <si>
-    <t>CHINA</t>
-  </si>
-  <si>
-    <t>IRAN</t>
-  </si>
-  <si>
-    <t>NORTHKOREA</t>
-  </si>
-  <si>
-    <t>RUSSIA</t>
-  </si>
-  <si>
-    <t>ACCELERATE</t>
-  </si>
-  <si>
-    <t>ADVANCE</t>
-  </si>
-  <si>
-    <t>ASSIST</t>
-  </si>
-  <si>
-    <t>BUILD</t>
-  </si>
-  <si>
-    <t>CONDUCT</t>
-  </si>
-  <si>
-    <t>COORDINATE</t>
-  </si>
-  <si>
-    <t>CREATE</t>
-  </si>
-  <si>
-    <t>DEVELOP</t>
-  </si>
-  <si>
-    <t>ENABLE</t>
-  </si>
-  <si>
-    <t>ENCOURAGE</t>
-  </si>
-  <si>
-    <t>ENHANCE</t>
-  </si>
-  <si>
-    <t>ENSURE</t>
-  </si>
-  <si>
-    <t>ESTABLISHED</t>
-  </si>
-  <si>
-    <t>EXPAND</t>
-  </si>
-  <si>
-    <t>FOSTER</t>
-  </si>
-  <si>
-    <t>IMPROVE</t>
-  </si>
-  <si>
-    <t>INCREASE</t>
-  </si>
-  <si>
-    <t>OVERSIGHT</t>
-  </si>
-  <si>
-    <t>PARTICIPATE</t>
-  </si>
-  <si>
-    <t>PRIORITISE</t>
-  </si>
-  <si>
-    <t>PROMOTE</t>
-  </si>
-  <si>
-    <t>PROPOSE</t>
-  </si>
-  <si>
-    <t>PROTECT</t>
-  </si>
-  <si>
-    <t>PROVIDE</t>
-  </si>
-  <si>
-    <t>RAISE</t>
-  </si>
-  <si>
-    <t>RECCOMEND</t>
-  </si>
-  <si>
-    <t>REDUCE</t>
-  </si>
-  <si>
-    <t>STRENGTHEN</t>
-  </si>
-  <si>
-    <t>SUPPORT</t>
-  </si>
-  <si>
-    <t>ALLOCATION</t>
-  </si>
-  <si>
-    <t>BUDGETARYMNGT</t>
-  </si>
-  <si>
-    <t>CIMB</t>
-  </si>
-  <si>
-    <t>INVEST</t>
-  </si>
-  <si>
-    <t>CYBEREXPERTISE</t>
-  </si>
-  <si>
-    <t>CYBERFORCE</t>
-  </si>
-  <si>
-    <t>CYBERPRACT</t>
-  </si>
-  <si>
-    <t>CYBERPROS</t>
-  </si>
-  <si>
-    <t>RECRUITMENT</t>
-  </si>
-  <si>
-    <t>RETENTION</t>
-  </si>
-  <si>
-    <t>TECHNICAL</t>
-  </si>
-  <si>
-    <t>ASOC</t>
-  </si>
-  <si>
-    <t>CMF</t>
-  </si>
-  <si>
-    <t>MIP</t>
-  </si>
-  <si>
-    <t>OFFENSIVECAPABILITIES</t>
-  </si>
-  <si>
-    <t>OPTIONSPLAN</t>
-  </si>
-  <si>
-    <t>RETALIATION</t>
-  </si>
-  <si>
-    <t>AIRFORCE</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>COUNTER</t>
-  </si>
-  <si>
-    <t>CYBERCOM</t>
-  </si>
-  <si>
-    <t>CYBERDEF</t>
-  </si>
-  <si>
-    <t>DEFEND</t>
-  </si>
-  <si>
-    <t>DEFSYS</t>
-  </si>
-  <si>
-    <t>DOD</t>
-  </si>
-  <si>
-    <t>ENGAGE</t>
-  </si>
-  <si>
-    <t>JFHQ</t>
-  </si>
-  <si>
-    <t>MILITARY</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>NMF</t>
-  </si>
-  <si>
-    <t>RESPOND</t>
-  </si>
-  <si>
-    <t>RESPONSE</t>
-  </si>
-  <si>
-    <t>USCYBERCOM</t>
-  </si>
-  <si>
-    <t>DENIAL</t>
-  </si>
-  <si>
-    <t>DETERRENCE</t>
-  </si>
-  <si>
-    <t>ACQUISITION</t>
-  </si>
-  <si>
-    <t>CYBERMARKET</t>
-  </si>
-  <si>
-    <t>EXPORT</t>
-  </si>
-  <si>
-    <t>DEFENSIVECAPABILITIES</t>
-  </si>
-  <si>
-    <t>ECONSANCTION</t>
-  </si>
-  <si>
     <t>CONTINGENCY</t>
   </si>
   <si>
@@ -1133,562 +1133,562 @@
     <t>CAPACITY·BUILDING</t>
   </si>
   <si>
+    <t>CYBER·PROTECTION·FORCES</t>
+  </si>
+  <si>
+    <t>CYBER·PROTECTION·TEAM</t>
+  </si>
+  <si>
+    <t>CYBER·PROTECTION·TEAMS</t>
+  </si>
+  <si>
+    <t>CYBER·CAPABILITIES</t>
+  </si>
+  <si>
+    <t>CYBER·CAPACITY</t>
+  </si>
+  <si>
+    <t>CYBER·EFFECTS</t>
+  </si>
+  <si>
+    <t>CYBER·REQUIREMENTS·COMBATANT·COMMAND·PLANS</t>
+  </si>
+  <si>
+    <t>CYBER·REQUIREMENTS·PLANS</t>
+  </si>
+  <si>
+    <t>CYBER·TOOLS</t>
+  </si>
+  <si>
+    <t>CYBER·WARFARE·PROGRAM</t>
+  </si>
+  <si>
+    <t>CYBER·WORKING·GROUP</t>
+  </si>
+  <si>
+    <t>DETECT</t>
+  </si>
+  <si>
+    <t>PREVENT</t>
+  </si>
+  <si>
+    <t>UNDERSTANDING</t>
+  </si>
+  <si>
+    <t>BEHAVIOR</t>
+  </si>
+  <si>
+    <t>CYBERSECURITY·TRAINING</t>
+  </si>
+  <si>
+    <t>TRAINING</t>
+  </si>
+  <si>
+    <t>EDUCATIONAL</t>
+  </si>
+  <si>
+    <t>INFORMATION·SHARING</t>
+  </si>
+  <si>
+    <t>CYBER·FLAG</t>
+  </si>
+  <si>
+    <t>CYBER·GUARD</t>
+  </si>
+  <si>
+    <t>EXERCISE</t>
+  </si>
+  <si>
+    <t>EXERCISE·CYBER·FLAG</t>
+  </si>
+  <si>
+    <t>EXERCISE·CYBER·SHIELD</t>
+  </si>
+  <si>
+    <t>EXERCISE·PROGRAM</t>
+  </si>
+  <si>
+    <t>LESSONS-LEARNED</t>
+  </si>
+  <si>
+    <t>NATIONAL·INITIATIVE·CYBERSECURITY·EDUCATION</t>
+  </si>
+  <si>
+    <t>ANALYTIC</t>
+  </si>
+  <si>
+    <t>ANALYTICS</t>
+  </si>
+  <si>
+    <t>CYBER·RESEARCH</t>
+  </si>
+  <si>
+    <t>EXCELLENCE</t>
+  </si>
+  <si>
+    <t>RESEARCH</t>
+  </si>
+  <si>
+    <t>DEFENSE·ADVANCED·RESEARCH·PROJECTS·AGENCY</t>
+  </si>
+  <si>
+    <t>INNOVATIVE</t>
+  </si>
+  <si>
+    <t>FIVE·EYES</t>
+  </si>
+  <si>
+    <t>CYBER·INTELLIGENCE</t>
+  </si>
+  <si>
+    <t>INTELLIGENCE·COMMUNITY</t>
+  </si>
+  <si>
+    <t>INTELLIGENCE·CAPABILITIES</t>
+  </si>
+  <si>
+    <t>INTELLIGENCE·COLLECTION</t>
+  </si>
+  <si>
+    <t>MONITORING</t>
+  </si>
+  <si>
+    <t>ECONOMIC·SECURITY</t>
+  </si>
+  <si>
+    <t>NATIONAL·INTERESTS</t>
+  </si>
+  <si>
+    <t>DEFENSE·SECURITY</t>
+  </si>
+  <si>
+    <t>ECONOMY</t>
+  </si>
+  <si>
+    <t>ENTERPRISE</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t>AMERICAN·VALUES</t>
+  </si>
+  <si>
+    <t>CYBER·CRIME</t>
+  </si>
+  <si>
+    <t>CYBER·ENABLED</t>
+  </si>
+  <si>
+    <t>SONY·PICTURES·ENTERTAINMENT</t>
+  </si>
+  <si>
+    <t>PROPAGANDA</t>
+  </si>
+  <si>
+    <t>DATA·THEFT</t>
+  </si>
+  <si>
+    <t>INTELLECTUAL·PROPERTY</t>
+  </si>
+  <si>
+    <t>INTELLECTUAL·PROPERTY·THEFT</t>
+  </si>
+  <si>
+    <t>THEFT·INTELLECTUAL·PROPERTY</t>
+  </si>
+  <si>
+    <t>CYBER·ESPIONAGE</t>
+  </si>
+  <si>
+    <t>CONFIDENTIAL</t>
+  </si>
+  <si>
+    <t>SENSITIVE·DATA</t>
+  </si>
+  <si>
+    <t>ZERO-DAY</t>
+  </si>
+  <si>
+    <t>AVAILABILITY</t>
+  </si>
+  <si>
+    <t>CONFIDENTIALITY</t>
+  </si>
+  <si>
+    <t>INTEGRITY</t>
+  </si>
+  <si>
+    <t>ACTIVITIES</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>CYBER·ACTIVITIES</t>
+  </si>
+  <si>
+    <t>MALICIOUS·CYBER·ACTIVITIES</t>
+  </si>
+  <si>
+    <t>MALICIOUS·CYBER·ACTIVITY</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>ATTACKS</t>
+  </si>
+  <si>
+    <t>CYBERATTACK</t>
+  </si>
+  <si>
+    <t>CYBER·ACTION</t>
+  </si>
+  <si>
+    <t>CYBER·OPERATION</t>
+  </si>
+  <si>
+    <t>CYBER·OPERATIONS</t>
+  </si>
+  <si>
+    <t>EXPLOIT</t>
+  </si>
+  <si>
+    <t>EXPLOITATION</t>
+  </si>
+  <si>
+    <t>EXPLOITS</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>INCIDENT</t>
+  </si>
+  <si>
+    <t>INTRUSION</t>
+  </si>
+  <si>
+    <t>INTRUSIONS</t>
+  </si>
+  <si>
+    <t>CYBER·ISSUES</t>
+  </si>
+  <si>
+    <t>CYBER·MISSION</t>
+  </si>
+  <si>
+    <t>CYBER·MISSIONS</t>
+  </si>
+  <si>
+    <t>CYBER·RISK</t>
+  </si>
+  <si>
+    <t>CYBER·RISKS</t>
+  </si>
+  <si>
+    <t>CYBER·THREAT</t>
+  </si>
+  <si>
+    <t>CYBER·THREATS</t>
+  </si>
+  <si>
+    <t>THREAT</t>
+  </si>
+  <si>
+    <t>HEALTH</t>
+  </si>
+  <si>
+    <t>MALICIOUS·CODE</t>
+  </si>
+  <si>
+    <t>RISK</t>
+  </si>
+  <si>
+    <t>CYBER·VULNERABILITIES</t>
+  </si>
+  <si>
+    <t>VULNERABLE</t>
+  </si>
+  <si>
+    <t>ACTOR</t>
+  </si>
+  <si>
+    <t>ACTORS</t>
+  </si>
+  <si>
+    <t>CYBER·ACTORS</t>
+  </si>
+  <si>
+    <t>MALICIOUS·ACTORS</t>
+  </si>
+  <si>
+    <t>CYBER·ADVERSARIES</t>
+  </si>
+  <si>
+    <t>CRIMINAL</t>
+  </si>
+  <si>
+    <t>CYBER·INTRUDERS</t>
+  </si>
+  <si>
+    <t>PATRIOTIC·ENTITIES</t>
+  </si>
+  <si>
+    <t>NON-STATE</t>
+  </si>
+  <si>
+    <t>CYBER·SURROGATES</t>
+  </si>
+  <si>
+    <t>ADVERSARIES</t>
+  </si>
+  <si>
+    <t>CHINESE</t>
+  </si>
+  <si>
+    <t>NORTH·KOREA</t>
+  </si>
+  <si>
+    <t>NORTH·KOREAN</t>
+  </si>
+  <si>
+    <t>RUSSIAN</t>
+  </si>
+  <si>
+    <t>BUILDING</t>
+  </si>
+  <si>
+    <t>CONDUCTING</t>
+  </si>
+  <si>
+    <t>COORDINATING</t>
+  </si>
+  <si>
+    <t>COORDINATION</t>
+  </si>
+  <si>
+    <t>DEVELOPING</t>
+  </si>
+  <si>
+    <t>ENABLING</t>
+  </si>
+  <si>
+    <t>ENHANCING</t>
+  </si>
+  <si>
+    <t>ENSURING</t>
+  </si>
+  <si>
+    <t>ESTABLISH</t>
+  </si>
+  <si>
+    <t>FOSTERING</t>
+  </si>
+  <si>
+    <t>IMPROVED</t>
+  </si>
+  <si>
+    <t>IMPROVING</t>
+  </si>
+  <si>
+    <t>INCREASED</t>
+  </si>
+  <si>
+    <t>INCREASINGLY</t>
+  </si>
+  <si>
+    <t>PRIORITIZE</t>
+  </si>
+  <si>
+    <t>PROTECTING</t>
+  </si>
+  <si>
+    <t>RECOMMEND</t>
+  </si>
+  <si>
+    <t>SUPPORTING</t>
+  </si>
+  <si>
+    <t>BUDGETARY</t>
+  </si>
+  <si>
+    <t>ALLOCATION·RESOURCES</t>
+  </si>
+  <si>
+    <t>CYBER·BUDGETARY·MANAGEMENT</t>
+  </si>
+  <si>
+    <t>CYBER·INVESTMENT·MANAGEMENT·BOARD</t>
+  </si>
+  <si>
+    <t>INVESTMENT</t>
+  </si>
+  <si>
+    <t>INVESTMENTS</t>
+  </si>
+  <si>
+    <t>CYBER·EXPERTISE</t>
+  </si>
+  <si>
+    <t>CYBER·FORCE</t>
+  </si>
+  <si>
+    <t>CYBER·FORCES</t>
+  </si>
+  <si>
+    <t>CYBER·OPERATORS</t>
+  </si>
+  <si>
+    <t>CYBER·RESOURCES</t>
+  </si>
+  <si>
+    <t>CYBERSECURITY·PRACTICES</t>
+  </si>
+  <si>
+    <t>CYBER·PERSONNEL</t>
+  </si>
+  <si>
+    <t>CYBER·WORKFORCE</t>
+  </si>
+  <si>
+    <t>WORKFORCE</t>
+  </si>
+  <si>
+    <t>RECRUIT</t>
+  </si>
+  <si>
+    <t>RETAIN</t>
+  </si>
+  <si>
+    <t>AIR·SPACE·OPERATIONS·CENTER</t>
+  </si>
+  <si>
+    <t>COMBAT·MISSION·FORCES</t>
+  </si>
+  <si>
+    <t>MILITARY·INTELLIGENCE·PROGRAM</t>
+  </si>
+  <si>
+    <t>OFFENSIVE</t>
+  </si>
+  <si>
+    <t>OFFENSIVE·CAPABILITY</t>
+  </si>
+  <si>
+    <t>CYBER·OPTIONS</t>
+  </si>
+  <si>
+    <t>VIABLE·CYBER·MILITARY·OPTIONS</t>
+  </si>
+  <si>
+    <t>VIABLE·CYBER·OPTIONS</t>
+  </si>
+  <si>
+    <t>VIABLE·CYBER·OPTIONS·PLAN·</t>
+  </si>
+  <si>
+    <t>AIR·FORCE</t>
+  </si>
+  <si>
+    <t>CYBER·MISSION·FORCE</t>
+  </si>
+  <si>
+    <t>CYBER·DEFENSE</t>
+  </si>
+  <si>
+    <t>CYBER·DEFENSES</t>
+  </si>
+  <si>
+    <t>DEFENDING</t>
+  </si>
+  <si>
+    <t>DEFENSE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT·DEFENSE</t>
+  </si>
+  <si>
+    <t>ENGAGING</t>
+  </si>
+  <si>
+    <t>NATIONAL·MISSION·FORCE</t>
+  </si>
+  <si>
+    <t>CYBER·COMMAND</t>
+  </si>
+  <si>
+    <t>DENY</t>
+  </si>
+  <si>
+    <t>DETERRENCE·DENIAL</t>
+  </si>
+  <si>
+    <t>HARDENING</t>
+  </si>
+  <si>
+    <t>CYBER·DETERRENCE</t>
+  </si>
+  <si>
+    <t>DETER</t>
+  </si>
+  <si>
+    <t>DETERRING</t>
+  </si>
+  <si>
+    <t>DISSUADING</t>
+  </si>
+  <si>
+    <t>ACQUISITION·REGULATION</t>
+  </si>
+  <si>
+    <t>PROCUREMENT·POLICY</t>
+  </si>
+  <si>
+    <t>COMMERCIAL</t>
+  </si>
+  <si>
+    <t>COMMERCIALIZE</t>
+  </si>
+  <si>
+    <t>CYBERSECURITY·SERVICES</t>
+  </si>
+  <si>
+    <t>CYBERSECURITY·SOLUTIONS</t>
+  </si>
+  <si>
+    <t>CYBER·SYSTEMS</t>
+  </si>
+  <si>
+    <t>DEFENSIVE</t>
+  </si>
+  <si>
+    <t>DEFENSIVE·CAPABILITIES</t>
+  </si>
+  <si>
+    <t>DEFENSIVE·MEASURE</t>
+  </si>
+  <si>
+    <t>DEFENSIVE·MEASURES</t>
+  </si>
+  <si>
+    <t>ECONOMIC·SANCTIONS</t>
+  </si>
+  <si>
     <t>CERTS</t>
   </si>
   <si>
     <t>COMPUTER·EMERGENCY·RESPONSE·TEAMS</t>
-  </si>
-  <si>
-    <t>CYBER·PROTECTION·FORCES</t>
-  </si>
-  <si>
-    <t>CYBER·PROTECTION·TEAM</t>
-  </si>
-  <si>
-    <t>CYBER·PROTECTION·TEAMS</t>
-  </si>
-  <si>
-    <t>CYBER·CAPABILITIES</t>
-  </si>
-  <si>
-    <t>CYBER·CAPACITY</t>
-  </si>
-  <si>
-    <t>CYBER·EFFECTS</t>
-  </si>
-  <si>
-    <t>CYBER·REQUIREMENTS·COMBATANT·COMMAND·PLANS</t>
-  </si>
-  <si>
-    <t>CYBER·REQUIREMENTS·PLANS</t>
-  </si>
-  <si>
-    <t>CYBER·TOOLS</t>
-  </si>
-  <si>
-    <t>CYBER·WARFARE·PROGRAM</t>
-  </si>
-  <si>
-    <t>CYBER·WORKING·GROUP</t>
-  </si>
-  <si>
-    <t>DETECT</t>
-  </si>
-  <si>
-    <t>PREVENT</t>
-  </si>
-  <si>
-    <t>UNDERSTANDING</t>
-  </si>
-  <si>
-    <t>BEHAVIOR</t>
-  </si>
-  <si>
-    <t>CYBERSECURITY·TRAINING</t>
-  </si>
-  <si>
-    <t>TRAINING</t>
-  </si>
-  <si>
-    <t>EDUCATIONAL</t>
-  </si>
-  <si>
-    <t>INFORMATION·SHARING</t>
-  </si>
-  <si>
-    <t>CYBER·FLAG</t>
-  </si>
-  <si>
-    <t>CYBER·GUARD</t>
-  </si>
-  <si>
-    <t>EXERCISE</t>
-  </si>
-  <si>
-    <t>EXERCISE·CYBER·FLAG</t>
-  </si>
-  <si>
-    <t>EXERCISE·CYBER·SHIELD</t>
-  </si>
-  <si>
-    <t>EXERCISE·PROGRAM</t>
-  </si>
-  <si>
-    <t>LESSONS-LEARNED</t>
-  </si>
-  <si>
-    <t>NATIONAL·INITIATIVE·CYBERSECURITY·EDUCATION</t>
-  </si>
-  <si>
-    <t>ANALYTIC</t>
-  </si>
-  <si>
-    <t>ANALYTICS</t>
-  </si>
-  <si>
-    <t>CYBER·RESEARCH</t>
-  </si>
-  <si>
-    <t>EXCELLENCE</t>
-  </si>
-  <si>
-    <t>RESEARCH</t>
-  </si>
-  <si>
-    <t>DEFENSE·ADVANCED·RESEARCH·PROJECTS·AGENCY</t>
-  </si>
-  <si>
-    <t>INNOVATIVE</t>
-  </si>
-  <si>
-    <t>FIVE·EYES</t>
-  </si>
-  <si>
-    <t>CYBER·INTELLIGENCE</t>
-  </si>
-  <si>
-    <t>INTELLIGENCE·COMMUNITY</t>
-  </si>
-  <si>
-    <t>INTELLIGENCE·CAPABILITIES</t>
-  </si>
-  <si>
-    <t>INTELLIGENCE·COLLECTION</t>
-  </si>
-  <si>
-    <t>MONITORING</t>
-  </si>
-  <si>
-    <t>ECONOMIC·SECURITY</t>
-  </si>
-  <si>
-    <t>NATIONAL·INTERESTS</t>
-  </si>
-  <si>
-    <t>DEFENSE·SECURITY</t>
-  </si>
-  <si>
-    <t>ECONOMY</t>
-  </si>
-  <si>
-    <t>ENTERPRISE</t>
-  </si>
-  <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t>AMERICAN·VALUES</t>
-  </si>
-  <si>
-    <t>CYBER·CRIME</t>
-  </si>
-  <si>
-    <t>CYBER·ENABLED</t>
-  </si>
-  <si>
-    <t>SONY·PICTURES·ENTERTAINMENT</t>
-  </si>
-  <si>
-    <t>PROPAGANDA</t>
-  </si>
-  <si>
-    <t>DATA·THEFT</t>
-  </si>
-  <si>
-    <t>INTELLECTUAL·PROPERTY</t>
-  </si>
-  <si>
-    <t>INTELLECTUAL·PROPERTY·THEFT</t>
-  </si>
-  <si>
-    <t>THEFT·INTELLECTUAL·PROPERTY</t>
-  </si>
-  <si>
-    <t>CYBER·ESPIONAGE</t>
-  </si>
-  <si>
-    <t>CONFIDENTIAL</t>
-  </si>
-  <si>
-    <t>SENSITIVE·DATA</t>
-  </si>
-  <si>
-    <t>ZERO-DAY</t>
-  </si>
-  <si>
-    <t>AVAILABILITY</t>
-  </si>
-  <si>
-    <t>CONFIDENTIALITY</t>
-  </si>
-  <si>
-    <t>INTEGRITY</t>
-  </si>
-  <si>
-    <t>ACTIVITIES</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>CYBER·ACTIVITIES</t>
-  </si>
-  <si>
-    <t>MALICIOUS·CYBER·ACTIVITIES</t>
-  </si>
-  <si>
-    <t>MALICIOUS·CYBER·ACTIVITY</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>ATTACK</t>
-  </si>
-  <si>
-    <t>ATTACKS</t>
-  </si>
-  <si>
-    <t>CYBERATTACK</t>
-  </si>
-  <si>
-    <t>CYBER·ACTION</t>
-  </si>
-  <si>
-    <t>CYBER·OPERATION</t>
-  </si>
-  <si>
-    <t>CYBER·OPERATIONS</t>
-  </si>
-  <si>
-    <t>EXPLOIT</t>
-  </si>
-  <si>
-    <t>EXPLOITATION</t>
-  </si>
-  <si>
-    <t>EXPLOITS</t>
-  </si>
-  <si>
-    <t>OPERATION</t>
-  </si>
-  <si>
-    <t>OPERATIONS</t>
-  </si>
-  <si>
-    <t>EVENT</t>
-  </si>
-  <si>
-    <t>INCIDENT</t>
-  </si>
-  <si>
-    <t>INTRUSION</t>
-  </si>
-  <si>
-    <t>INTRUSIONS</t>
-  </si>
-  <si>
-    <t>CYBER·ISSUES</t>
-  </si>
-  <si>
-    <t>CYBER·MISSION</t>
-  </si>
-  <si>
-    <t>CYBER·MISSIONS</t>
-  </si>
-  <si>
-    <t>CYBER·RISK</t>
-  </si>
-  <si>
-    <t>CYBER·RISKS</t>
-  </si>
-  <si>
-    <t>CYBER·THREAT</t>
-  </si>
-  <si>
-    <t>CYBER·THREATS</t>
-  </si>
-  <si>
-    <t>THREAT</t>
-  </si>
-  <si>
-    <t>HEALTH</t>
-  </si>
-  <si>
-    <t>MALICIOUS·CODE</t>
-  </si>
-  <si>
-    <t>RISK</t>
-  </si>
-  <si>
-    <t>CYBER·VULNERABILITIES</t>
-  </si>
-  <si>
-    <t>VULNERABLE</t>
-  </si>
-  <si>
-    <t>ACTOR</t>
-  </si>
-  <si>
-    <t>ACTORS</t>
-  </si>
-  <si>
-    <t>CYBER·ACTORS</t>
-  </si>
-  <si>
-    <t>MALICIOUS·ACTORS</t>
-  </si>
-  <si>
-    <t>CYBER·ADVERSARIES</t>
-  </si>
-  <si>
-    <t>CRIMINAL</t>
-  </si>
-  <si>
-    <t>CYBER·INTRUDERS</t>
-  </si>
-  <si>
-    <t>PATRIOTIC·ENTITIES</t>
-  </si>
-  <si>
-    <t>NON-STATE</t>
-  </si>
-  <si>
-    <t>CYBER·SURROGATES</t>
-  </si>
-  <si>
-    <t>ADVERSARIES</t>
-  </si>
-  <si>
-    <t>CHINESE</t>
-  </si>
-  <si>
-    <t>NORTH·KOREA</t>
-  </si>
-  <si>
-    <t>NORTH·KOREAN</t>
-  </si>
-  <si>
-    <t>RUSSIAN</t>
-  </si>
-  <si>
-    <t>BUILDING</t>
-  </si>
-  <si>
-    <t>CONDUCTING</t>
-  </si>
-  <si>
-    <t>COORDINATING</t>
-  </si>
-  <si>
-    <t>COORDINATION</t>
-  </si>
-  <si>
-    <t>DEVELOPING</t>
-  </si>
-  <si>
-    <t>ENABLING</t>
-  </si>
-  <si>
-    <t>ENHANCING</t>
-  </si>
-  <si>
-    <t>ENSURING</t>
-  </si>
-  <si>
-    <t>ESTABLISH</t>
-  </si>
-  <si>
-    <t>FOSTERING</t>
-  </si>
-  <si>
-    <t>IMPROVED</t>
-  </si>
-  <si>
-    <t>IMPROVING</t>
-  </si>
-  <si>
-    <t>INCREASED</t>
-  </si>
-  <si>
-    <t>INCREASINGLY</t>
-  </si>
-  <si>
-    <t>PRIORITIZE</t>
-  </si>
-  <si>
-    <t>PROTECTING</t>
-  </si>
-  <si>
-    <t>RECOMMEND</t>
-  </si>
-  <si>
-    <t>SUPPORTING</t>
-  </si>
-  <si>
-    <t>BUDGETARY</t>
-  </si>
-  <si>
-    <t>ALLOCATION·RESOURCES</t>
-  </si>
-  <si>
-    <t>CYBER·BUDGETARY·MANAGEMENT</t>
-  </si>
-  <si>
-    <t>CYBER·INVESTMENT·MANAGEMENT·BOARD</t>
-  </si>
-  <si>
-    <t>INVESTMENT</t>
-  </si>
-  <si>
-    <t>INVESTMENTS</t>
-  </si>
-  <si>
-    <t>CYBER·EXPERTISE</t>
-  </si>
-  <si>
-    <t>CYBER·FORCE</t>
-  </si>
-  <si>
-    <t>CYBER·FORCES</t>
-  </si>
-  <si>
-    <t>CYBER·OPERATORS</t>
-  </si>
-  <si>
-    <t>CYBER·RESOURCES</t>
-  </si>
-  <si>
-    <t>CYBERSECURITY·PRACTICES</t>
-  </si>
-  <si>
-    <t>CYBER·PERSONNEL</t>
-  </si>
-  <si>
-    <t>CYBER·WORKFORCE</t>
-  </si>
-  <si>
-    <t>WORKFORCE</t>
-  </si>
-  <si>
-    <t>RECRUIT</t>
-  </si>
-  <si>
-    <t>RETAIN</t>
-  </si>
-  <si>
-    <t>AIR·SPACE·OPERATIONS·CENTER</t>
-  </si>
-  <si>
-    <t>COMBAT·MISSION·FORCES</t>
-  </si>
-  <si>
-    <t>MILITARY·INTELLIGENCE·PROGRAM</t>
-  </si>
-  <si>
-    <t>OFFENSIVE</t>
-  </si>
-  <si>
-    <t>OFFENSIVE·CAPABILITY</t>
-  </si>
-  <si>
-    <t>CYBER·OPTIONS</t>
-  </si>
-  <si>
-    <t>VIABLE·CYBER·MILITARY·OPTIONS</t>
-  </si>
-  <si>
-    <t>VIABLE·CYBER·OPTIONS</t>
-  </si>
-  <si>
-    <t>VIABLE·CYBER·OPTIONS·PLAN·</t>
-  </si>
-  <si>
-    <t>AIR·FORCE</t>
-  </si>
-  <si>
-    <t>CYBER·MISSION·FORCE</t>
-  </si>
-  <si>
-    <t>CYBER·DEFENSE</t>
-  </si>
-  <si>
-    <t>CYBER·DEFENSES</t>
-  </si>
-  <si>
-    <t>DEFENDING</t>
-  </si>
-  <si>
-    <t>DEFENSE</t>
-  </si>
-  <si>
-    <t>DEPARTMENT·DEFENSE</t>
-  </si>
-  <si>
-    <t>ENGAGING</t>
-  </si>
-  <si>
-    <t>NATIONAL·MISSION·FORCE</t>
-  </si>
-  <si>
-    <t>CYBER·COMMAND</t>
-  </si>
-  <si>
-    <t>DENY</t>
-  </si>
-  <si>
-    <t>DETERRENCE·DENIAL</t>
-  </si>
-  <si>
-    <t>HARDENING</t>
-  </si>
-  <si>
-    <t>CYBER·DETERRENCE</t>
-  </si>
-  <si>
-    <t>DETER</t>
-  </si>
-  <si>
-    <t>DETERRING</t>
-  </si>
-  <si>
-    <t>DISSUADING</t>
-  </si>
-  <si>
-    <t>ACQUISITION·REGULATION</t>
-  </si>
-  <si>
-    <t>PROCUREMENT·POLICY</t>
-  </si>
-  <si>
-    <t>COMMERCIAL</t>
-  </si>
-  <si>
-    <t>COMMERCIALIZE</t>
-  </si>
-  <si>
-    <t>CYBERSECURITY·SERVICES</t>
-  </si>
-  <si>
-    <t>CYBERSECURITY·SOLUTIONS</t>
-  </si>
-  <si>
-    <t>CYBER·SYSTEMS</t>
-  </si>
-  <si>
-    <t>DEFENSIVE</t>
-  </si>
-  <si>
-    <t>DEFENSIVE·CAPABILITIES</t>
-  </si>
-  <si>
-    <t>DEFENSIVE·MEASURE</t>
-  </si>
-  <si>
-    <t>DEFENSIVE·MEASURES</t>
-  </si>
-  <si>
-    <t>ECONOMIC·SANCTIONS</t>
   </si>
   <si>
     <t>CONTINGENCY·PLANS</t>
@@ -5791,7 +5791,7 @@
   <cols>
     <col min="1" max="1" width="14.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.3203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.73828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5843,10 +5843,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>434.0</v>
+        <v>432.0</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.0640590405904059</v>
+        <v>0.06376383763837638</v>
       </c>
     </row>
     <row r="6">
@@ -5887,10 +5887,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>870.0</v>
+        <v>872.0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.12841328413284134</v>
+        <v>0.12870848708487084</v>
       </c>
     </row>
     <row r="10">
@@ -5942,7 +5942,7 @@
     <col min="1" max="1" width="14.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.7734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.73828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6149,10 +6149,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>155.0</v>
+        <v>153.0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.022878228782287822</v>
+        <v>0.022583025830258303</v>
       </c>
     </row>
     <row r="16">
@@ -6569,10 +6569,10 @@
         <v>58</v>
       </c>
       <c r="C45" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.005018450184501845</v>
+        <v>0.005313653136531365</v>
       </c>
     </row>
     <row r="46">
@@ -6715,7 +6715,7 @@
     <col min="2" max="2" width="18.7734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.69140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.3203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.73828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7613,10 +7613,10 @@
         <v>109</v>
       </c>
       <c r="D53" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="54">
@@ -7630,10 +7630,10 @@
         <v>110</v>
       </c>
       <c r="D54" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.0030996309963099633</v>
       </c>
     </row>
     <row r="55">
@@ -7647,10 +7647,10 @@
         <v>111</v>
       </c>
       <c r="D55" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0.0030996309963099633</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="56">
@@ -7664,10 +7664,10 @@
         <v>112</v>
       </c>
       <c r="D56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="57">
@@ -7681,10 +7681,10 @@
         <v>113</v>
       </c>
       <c r="D57" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="58">
@@ -7732,10 +7732,10 @@
         <v>116</v>
       </c>
       <c r="D60" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="61">
@@ -7749,10 +7749,10 @@
         <v>117</v>
       </c>
       <c r="D61" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="62">
@@ -7783,10 +7783,10 @@
         <v>119</v>
       </c>
       <c r="D63" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="64">
@@ -7800,10 +7800,10 @@
         <v>120</v>
       </c>
       <c r="D64" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="65">
@@ -7811,7 +7811,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
         <v>121</v>
@@ -7834,10 +7834,10 @@
         <v>122</v>
       </c>
       <c r="D66" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="67">
@@ -7851,10 +7851,10 @@
         <v>123</v>
       </c>
       <c r="D67" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0016236162361623616</v>
       </c>
     </row>
     <row r="68">
@@ -7865,13 +7865,13 @@
         <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>0.0016236162361623616</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="69">
@@ -7882,13 +7882,13 @@
         <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D69" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="70">
@@ -7902,10 +7902,10 @@
         <v>125</v>
       </c>
       <c r="D70" t="n">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>0.0036900369003690036</v>
       </c>
     </row>
     <row r="71">
@@ -7919,10 +7919,10 @@
         <v>126</v>
       </c>
       <c r="D71" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>0.0036900369003690036</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="72">
@@ -7947,16 +7947,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>128</v>
       </c>
       <c r="D73" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="74">
@@ -7970,10 +7970,10 @@
         <v>129</v>
       </c>
       <c r="D74" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="75">
@@ -7987,10 +7987,10 @@
         <v>130</v>
       </c>
       <c r="D75" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>0.001033210332103321</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="76">
@@ -8001,13 +8001,13 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="77">
@@ -8015,16 +8015,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="D77" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>0.001033210332103321</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="78">
@@ -8055,10 +8055,10 @@
         <v>133</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="80">
@@ -8072,10 +8072,10 @@
         <v>134</v>
       </c>
       <c r="D80" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="81">
@@ -8086,13 +8086,13 @@
         <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="D81" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0030996309963099633</v>
       </c>
     </row>
     <row r="82">
@@ -8103,13 +8103,13 @@
         <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D82" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>0.0030996309963099633</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="83">
@@ -8117,16 +8117,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
         <v>136</v>
       </c>
       <c r="D83" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="84">
@@ -8140,10 +8140,10 @@
         <v>137</v>
       </c>
       <c r="D84" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="85">
@@ -8154,13 +8154,13 @@
         <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0</v>
+        <v>49.0</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.007232472324723248</v>
       </c>
     </row>
     <row r="86">
@@ -8171,13 +8171,13 @@
         <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D86" t="n">
-        <v>49.0</v>
+        <v>1.0</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>0.007232472324723248</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="87">
@@ -8202,16 +8202,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
         <v>140</v>
       </c>
       <c r="D88" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="89">
@@ -8225,10 +8225,10 @@
         <v>141</v>
       </c>
       <c r="D89" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="90">
@@ -8239,7 +8239,7 @@
         <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="D90" t="n">
         <v>2.0</v>
@@ -8256,13 +8256,13 @@
         <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="D91" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="92">
@@ -8270,16 +8270,16 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
         <v>143</v>
       </c>
       <c r="D92" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>0.0011808118081180813</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="93">
@@ -8307,30 +8307,30 @@
         <v>34</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="96">
@@ -8344,10 +8344,10 @@
         <v>146</v>
       </c>
       <c r="D96" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="97">
@@ -8361,10 +8361,10 @@
         <v>147</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="98">
@@ -8378,10 +8378,10 @@
         <v>148</v>
       </c>
       <c r="D98" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="99">
@@ -8389,16 +8389,16 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
         <v>149</v>
       </c>
       <c r="D99" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="100">
@@ -8406,16 +8406,16 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
         <v>150</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.001918819188191882</v>
       </c>
     </row>
     <row r="101">
@@ -8423,16 +8423,16 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
         <v>151</v>
       </c>
       <c r="D101" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>0.001918819188191882</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="102">
@@ -8446,10 +8446,10 @@
         <v>152</v>
       </c>
       <c r="D102" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="103">
@@ -8457,16 +8457,16 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="D103" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="104">
@@ -8474,16 +8474,16 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="D104" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="105">
@@ -8497,10 +8497,10 @@
         <v>154</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="106">
@@ -8514,10 +8514,10 @@
         <v>155</v>
       </c>
       <c r="D106" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.002952029520295203</v>
       </c>
     </row>
     <row r="107">
@@ -8531,10 +8531,10 @@
         <v>156</v>
       </c>
       <c r="D107" t="n">
-        <v>20.0</v>
+        <v>154.0</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>0.002952029520295203</v>
+        <v>0.022730627306273062</v>
       </c>
     </row>
     <row r="108">
@@ -8548,10 +8548,10 @@
         <v>157</v>
       </c>
       <c r="D108" t="n">
-        <v>154.0</v>
+        <v>8.0</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>0.022730627306273062</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="109">
@@ -8565,10 +8565,10 @@
         <v>158</v>
       </c>
       <c r="D109" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>0.0011808118081180813</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="110">
@@ -8582,10 +8582,10 @@
         <v>159</v>
       </c>
       <c r="D110" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E110" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="111">
@@ -8599,10 +8599,10 @@
         <v>160</v>
       </c>
       <c r="D111" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E111" s="4" t="n">
-        <v>0.0011808118081180813</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="112">
@@ -8616,10 +8616,10 @@
         <v>161</v>
       </c>
       <c r="D112" t="n">
-        <v>7.0</v>
+        <v>42.0</v>
       </c>
       <c r="E112" s="4" t="n">
-        <v>0.001033210332103321</v>
+        <v>0.0061992619926199265</v>
       </c>
     </row>
     <row r="113">
@@ -8633,10 +8633,10 @@
         <v>162</v>
       </c>
       <c r="D113" t="n">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="E113" s="4" t="n">
-        <v>0.0061992619926199265</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="114">
@@ -8684,10 +8684,10 @@
         <v>165</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0023616236162361626</v>
       </c>
     </row>
     <row r="117">
@@ -8709,19 +8709,19 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
         <v>167</v>
       </c>
       <c r="D118" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>0.0023616236162361626</v>
+        <v>0.004428044280442804</v>
       </c>
     </row>
     <row r="119">
@@ -8735,10 +8735,10 @@
         <v>168</v>
       </c>
       <c r="D119" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="E119" s="4" t="n">
-        <v>0.004428044280442804</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="120">
@@ -8746,16 +8746,16 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="D120" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E120" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="121">
@@ -8763,16 +8763,16 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D121" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E121" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="122">
@@ -8783,7 +8783,7 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="D122" t="n">
         <v>1.0</v>
@@ -8797,16 +8797,16 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C123" t="s">
         <v>170</v>
       </c>
       <c r="D123" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E123" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="124">
@@ -8814,16 +8814,16 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C124" t="s">
         <v>171</v>
       </c>
       <c r="D124" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E124" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="125">
@@ -8831,16 +8831,16 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="D125" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="E125" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0032472324723247232</v>
       </c>
     </row>
     <row r="126">
@@ -8848,16 +8848,16 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="D126" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="E126" s="4" t="n">
-        <v>0.0032472324723247232</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="127">
@@ -8865,16 +8865,16 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
         <v>173</v>
       </c>
       <c r="D127" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="E127" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0032472324723247232</v>
       </c>
     </row>
     <row r="128">
@@ -8888,10 +8888,10 @@
         <v>174</v>
       </c>
       <c r="D128" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="E128" s="4" t="n">
-        <v>0.0032472324723247232</v>
+        <v>0.001918819188191882</v>
       </c>
     </row>
     <row r="129">
@@ -8905,10 +8905,10 @@
         <v>175</v>
       </c>
       <c r="D129" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="E129" s="4" t="n">
-        <v>0.001918819188191882</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="130">
@@ -8922,10 +8922,10 @@
         <v>176</v>
       </c>
       <c r="D130" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E130" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="131">
@@ -8939,18 +8939,18 @@
         <v>177</v>
       </c>
       <c r="D131" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E131" s="4" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
         <v>178</v>
@@ -8973,10 +8973,10 @@
         <v>179</v>
       </c>
       <c r="D133" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E133" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="134">
@@ -8990,10 +8990,10 @@
         <v>180</v>
       </c>
       <c r="D134" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E134" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="135">
@@ -9007,10 +9007,10 @@
         <v>181</v>
       </c>
       <c r="D135" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="E135" s="4" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.002066420664206642</v>
       </c>
     </row>
     <row r="136">
@@ -9024,10 +9024,10 @@
         <v>182</v>
       </c>
       <c r="D136" t="n">
-        <v>14.0</v>
+        <v>38.0</v>
       </c>
       <c r="E136" s="4" t="n">
-        <v>0.002066420664206642</v>
+        <v>0.005608856088560886</v>
       </c>
     </row>
     <row r="137">
@@ -9041,10 +9041,10 @@
         <v>183</v>
       </c>
       <c r="D137" t="n">
-        <v>38.0</v>
+        <v>14.0</v>
       </c>
       <c r="E137" s="4" t="n">
-        <v>0.005608856088560886</v>
+        <v>0.002066420664206642</v>
       </c>
     </row>
     <row r="138">
@@ -9058,10 +9058,10 @@
         <v>184</v>
       </c>
       <c r="D138" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="E138" s="4" t="n">
-        <v>0.002066420664206642</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="139">
@@ -9075,10 +9075,10 @@
         <v>185</v>
       </c>
       <c r="D139" t="n">
-        <v>2.0</v>
+        <v>54.0</v>
       </c>
       <c r="E139" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.007970479704797048</v>
       </c>
     </row>
     <row r="140">
@@ -9092,10 +9092,10 @@
         <v>186</v>
       </c>
       <c r="D140" t="n">
-        <v>54.0</v>
+        <v>5.0</v>
       </c>
       <c r="E140" s="4" t="n">
-        <v>0.007970479704797048</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="141">
@@ -9109,10 +9109,10 @@
         <v>187</v>
       </c>
       <c r="D141" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E141" s="4" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="142">
@@ -9126,10 +9126,10 @@
         <v>188</v>
       </c>
       <c r="D142" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E142" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="143">
@@ -9143,10 +9143,10 @@
         <v>189</v>
       </c>
       <c r="D143" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="E143" s="4" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>0.001918819188191882</v>
       </c>
     </row>
     <row r="144">
@@ -9160,10 +9160,10 @@
         <v>190</v>
       </c>
       <c r="D144" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="E144" s="4" t="n">
-        <v>0.001918819188191882</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="145">
@@ -9177,10 +9177,10 @@
         <v>191</v>
       </c>
       <c r="D145" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E145" s="4" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="146">
@@ -9194,10 +9194,10 @@
         <v>192</v>
       </c>
       <c r="D146" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E146" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="147">
@@ -9211,10 +9211,10 @@
         <v>193</v>
       </c>
       <c r="D147" t="n">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
       <c r="E147" s="4" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>0.003985239852398524</v>
       </c>
     </row>
     <row r="148">
@@ -9228,10 +9228,10 @@
         <v>194</v>
       </c>
       <c r="D148" t="n">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
       <c r="E148" s="4" t="n">
-        <v>0.003985239852398524</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="149">
@@ -9245,10 +9245,10 @@
         <v>195</v>
       </c>
       <c r="D149" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E149" s="4" t="n">
-        <v>0.0011808118081180813</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="150">
@@ -9279,10 +9279,10 @@
         <v>197</v>
       </c>
       <c r="D151" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E151" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="152">
@@ -9296,10 +9296,10 @@
         <v>198</v>
       </c>
       <c r="D152" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E152" s="4" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="153">
@@ -9313,10 +9313,10 @@
         <v>199</v>
       </c>
       <c r="D153" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E153" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="154">
@@ -9330,10 +9330,10 @@
         <v>200</v>
       </c>
       <c r="D154" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="E154" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0017712177121771218</v>
       </c>
     </row>
     <row r="155">
@@ -9347,10 +9347,10 @@
         <v>201</v>
       </c>
       <c r="D155" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E155" s="4" t="n">
-        <v>0.0017712177121771218</v>
+        <v>0.002804428044280443</v>
       </c>
     </row>
     <row r="156">
@@ -9364,10 +9364,10 @@
         <v>202</v>
       </c>
       <c r="D156" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="E156" s="4" t="n">
-        <v>0.002804428044280443</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="157">
@@ -9398,10 +9398,10 @@
         <v>204</v>
       </c>
       <c r="D158" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E158" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="159">
@@ -9415,10 +9415,10 @@
         <v>205</v>
       </c>
       <c r="D159" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="E159" s="4" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="160">
@@ -9432,10 +9432,10 @@
         <v>206</v>
       </c>
       <c r="D160" t="n">
-        <v>9.0</v>
+        <v>47.0</v>
       </c>
       <c r="E160" s="4" t="n">
-        <v>0.0013284132841328412</v>
+        <v>0.006937269372693727</v>
       </c>
     </row>
     <row r="161">
@@ -9443,16 +9443,16 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C161" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D161" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="E161" s="4" t="n">
-        <v>0.006937269372693727</v>
+        <v>0.0017712177121771218</v>
       </c>
     </row>
     <row r="162">
@@ -9460,16 +9460,16 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C162" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="D162" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="E162" s="4" t="n">
-        <v>0.0017712177121771218</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="163">
@@ -9483,10 +9483,10 @@
         <v>208</v>
       </c>
       <c r="D163" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E163" s="4" t="n">
-        <v>0.001033210332103321</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="164">
@@ -9500,10 +9500,10 @@
         <v>209</v>
       </c>
       <c r="D164" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E164" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="165">
@@ -9514,13 +9514,13 @@
         <v>51</v>
       </c>
       <c r="C165" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="D165" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E165" s="4" t="n">
-        <v>0.0011808118081180813</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="166">
@@ -9531,13 +9531,13 @@
         <v>51</v>
       </c>
       <c r="C166" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="D166" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="E166" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0023616236162361626</v>
       </c>
     </row>
     <row r="167">
@@ -9545,16 +9545,16 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C167" t="s">
         <v>211</v>
       </c>
       <c r="D167" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="E167" s="4" t="n">
-        <v>0.0023616236162361626</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="168">
@@ -9568,10 +9568,10 @@
         <v>212</v>
       </c>
       <c r="D168" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E168" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="169">
@@ -9585,10 +9585,10 @@
         <v>213</v>
       </c>
       <c r="D169" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E169" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="170">
@@ -9602,10 +9602,10 @@
         <v>214</v>
       </c>
       <c r="D170" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="E170" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.004428044280442804</v>
       </c>
     </row>
     <row r="171">
@@ -9619,10 +9619,10 @@
         <v>215</v>
       </c>
       <c r="D171" t="n">
-        <v>30.0</v>
+        <v>4.0</v>
       </c>
       <c r="E171" s="4" t="n">
-        <v>0.004428044280442804</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="172">
@@ -9636,10 +9636,10 @@
         <v>216</v>
       </c>
       <c r="D172" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E172" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="173">
@@ -9653,27 +9653,27 @@
         <v>217</v>
       </c>
       <c r="D173" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="E173" s="4" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C174" t="s">
         <v>218</v>
       </c>
       <c r="D174" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E174" s="4" t="n">
-        <v>0.0013284132841328412</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="175">
@@ -9687,10 +9687,10 @@
         <v>219</v>
       </c>
       <c r="D175" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E175" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="176">
@@ -9738,10 +9738,10 @@
         <v>222</v>
       </c>
       <c r="D178" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E178" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="179">
@@ -9755,10 +9755,10 @@
         <v>223</v>
       </c>
       <c r="D179" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E179" s="4" t="n">
-        <v>0.001033210332103321</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="180">
@@ -9766,16 +9766,16 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C180" t="s">
         <v>224</v>
       </c>
       <c r="D180" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="E180" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.002214022140221402</v>
       </c>
     </row>
     <row r="181">
@@ -9789,10 +9789,10 @@
         <v>225</v>
       </c>
       <c r="D181" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="E181" s="4" t="n">
-        <v>0.002214022140221402</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="182">
@@ -9803,13 +9803,13 @@
         <v>54</v>
       </c>
       <c r="C182" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D182" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E182" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.0016236162361623616</v>
       </c>
     </row>
     <row r="183">
@@ -9820,13 +9820,13 @@
         <v>54</v>
       </c>
       <c r="C183" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D183" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="E183" s="4" t="n">
-        <v>0.0016236162361623616</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="184">
@@ -9840,10 +9840,10 @@
         <v>227</v>
       </c>
       <c r="D184" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E184" s="4" t="n">
-        <v>0.001033210332103321</v>
+        <v>0.0014760147601476014</v>
       </c>
     </row>
     <row r="185">
@@ -9857,10 +9857,10 @@
         <v>228</v>
       </c>
       <c r="D185" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E185" s="4" t="n">
-        <v>0.0014760147601476014</v>
+        <v>0.002214022140221402</v>
       </c>
     </row>
     <row r="186">
@@ -9874,10 +9874,10 @@
         <v>229</v>
       </c>
       <c r="D186" t="n">
-        <v>15.0</v>
+        <v>57.0</v>
       </c>
       <c r="E186" s="4" t="n">
-        <v>0.002214022140221402</v>
+        <v>0.008413284132841328</v>
       </c>
     </row>
     <row r="187">
@@ -9891,10 +9891,10 @@
         <v>230</v>
       </c>
       <c r="D187" t="n">
-        <v>57.0</v>
+        <v>118.0</v>
       </c>
       <c r="E187" s="4" t="n">
-        <v>0.008413284132841328</v>
+        <v>0.017416974169741698</v>
       </c>
     </row>
     <row r="188">
@@ -9908,10 +9908,10 @@
         <v>231</v>
       </c>
       <c r="D188" t="n">
-        <v>118.0</v>
+        <v>246.0</v>
       </c>
       <c r="E188" s="4" t="n">
-        <v>0.017416974169741698</v>
+        <v>0.036309963099631</v>
       </c>
     </row>
     <row r="189">
@@ -9925,10 +9925,10 @@
         <v>232</v>
       </c>
       <c r="D189" t="n">
-        <v>246.0</v>
+        <v>2.0</v>
       </c>
       <c r="E189" s="4" t="n">
-        <v>0.036309963099631</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="190">
@@ -9942,10 +9942,10 @@
         <v>233</v>
       </c>
       <c r="D190" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E190" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="191">
@@ -9959,10 +9959,10 @@
         <v>234</v>
       </c>
       <c r="D191" t="n">
-        <v>1.0</v>
+        <v>48.0</v>
       </c>
       <c r="E191" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.007084870848708487</v>
       </c>
     </row>
     <row r="192">
@@ -9976,10 +9976,10 @@
         <v>235</v>
       </c>
       <c r="D192" t="n">
-        <v>48.0</v>
+        <v>4.0</v>
       </c>
       <c r="E192" s="4" t="n">
-        <v>0.007084870848708487</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="193">
@@ -9993,10 +9993,10 @@
         <v>236</v>
       </c>
       <c r="D193" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E193" s="4" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="194">
@@ -10010,10 +10010,10 @@
         <v>237</v>
       </c>
       <c r="D194" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E194" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="195">
@@ -10027,10 +10027,10 @@
         <v>238</v>
       </c>
       <c r="D195" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="E195" s="4" t="n">
-        <v>0.0013284132841328412</v>
+        <v>0.0016236162361623616</v>
       </c>
     </row>
     <row r="196">
@@ -10044,10 +10044,10 @@
         <v>239</v>
       </c>
       <c r="D196" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E196" s="4" t="n">
-        <v>0.0016236162361623616</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="197">
@@ -10055,16 +10055,16 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C197" t="s">
         <v>240</v>
       </c>
       <c r="D197" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E197" s="4" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="198">
@@ -10078,10 +10078,10 @@
         <v>241</v>
       </c>
       <c r="D198" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="E198" s="4" t="n">
-        <v>0.001033210332103321</v>
+        <v>0.003985239852398524</v>
       </c>
     </row>
     <row r="199">
@@ -10092,13 +10092,13 @@
         <v>55</v>
       </c>
       <c r="C199" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="D199" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="E199" s="4" t="n">
-        <v>0.003985239852398524</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="200">
@@ -10106,16 +10106,16 @@
         <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C200" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="D200" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E200" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="201">
@@ -10129,10 +10129,10 @@
         <v>243</v>
       </c>
       <c r="D201" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E201" s="4" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="202">
@@ -10146,10 +10146,10 @@
         <v>244</v>
       </c>
       <c r="D202" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E202" s="4" t="n">
-        <v>0.0011808118081180813</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="203">
@@ -10157,16 +10157,16 @@
         <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C203" t="s">
         <v>245</v>
       </c>
       <c r="D203" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E203" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="204">
@@ -10180,10 +10180,10 @@
         <v>246</v>
       </c>
       <c r="D204" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E204" s="4" t="n">
-        <v>0.0013284132841328412</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="205">
@@ -10191,16 +10191,16 @@
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C205" t="s">
         <v>247</v>
       </c>
       <c r="D205" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E205" s="4" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="206">
@@ -10432,7 +10432,7 @@
         <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D219" t="n">
         <v>1.0</v>
@@ -10500,7 +10500,7 @@
         <v>59</v>
       </c>
       <c r="C223" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D223" t="n">
         <v>1.0</v>
@@ -10653,7 +10653,7 @@
         <v>61</v>
       </c>
       <c r="C232" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D232" t="n">
         <v>15.0</v>
@@ -10687,7 +10687,7 @@
         <v>61</v>
       </c>
       <c r="C234" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D234" t="n">
         <v>1.0</v>
@@ -11048,7 +11048,7 @@
     <col min="3" max="3" width="22.69140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="51.4296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.3203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.73828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13545,10 +13545,10 @@
         <v>373</v>
       </c>
       <c r="E125" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F125" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="126">
@@ -13559,7 +13559,7 @@
         <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D126" t="s">
         <v>374</v>
@@ -13585,10 +13585,10 @@
         <v>375</v>
       </c>
       <c r="E127" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="F127" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.002952029520295203</v>
       </c>
     </row>
     <row r="128">
@@ -13625,10 +13625,10 @@
         <v>377</v>
       </c>
       <c r="E129" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="F129" s="5" t="n">
-        <v>0.002952029520295203</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="130">
@@ -13639,7 +13639,7 @@
         <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D130" t="s">
         <v>378</v>
@@ -13699,7 +13699,7 @@
         <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D133" t="s">
         <v>381</v>
@@ -13719,7 +13719,7 @@
         <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D134" t="s">
         <v>382</v>
@@ -13739,16 +13739,16 @@
         <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D135" t="s">
         <v>383</v>
       </c>
       <c r="E135" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="136">
@@ -13762,13 +13762,13 @@
         <v>116</v>
       </c>
       <c r="D136" t="s">
-        <v>384</v>
+        <v>116</v>
       </c>
       <c r="E136" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="137">
@@ -13782,13 +13782,13 @@
         <v>117</v>
       </c>
       <c r="D137" t="s">
-        <v>385</v>
+        <v>117</v>
       </c>
       <c r="E137" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F137" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="138">
@@ -13799,16 +13799,16 @@
         <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D138" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E138" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="139">
@@ -13819,16 +13819,16 @@
         <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D139" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
       <c r="E139" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F139" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="140">
@@ -13839,16 +13839,16 @@
         <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D140" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E140" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="141">
@@ -13862,13 +13862,13 @@
         <v>120</v>
       </c>
       <c r="D141" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E141" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F141" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="142">
@@ -13876,19 +13876,19 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C142" t="s">
         <v>121</v>
       </c>
       <c r="D142" t="s">
-        <v>121</v>
+        <v>386</v>
       </c>
       <c r="E142" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F142" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="143">
@@ -13896,19 +13896,19 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C143" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D143" t="s">
         <v>387</v>
       </c>
       <c r="E143" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F143" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="144">
@@ -13919,16 +13919,16 @@
         <v>29</v>
       </c>
       <c r="C144" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D144" t="s">
         <v>388</v>
       </c>
       <c r="E144" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="F144" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>0.0016236162361623616</v>
       </c>
     </row>
     <row r="145">
@@ -13939,16 +13939,16 @@
         <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>389</v>
+        <v>29</v>
       </c>
       <c r="E145" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F145" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="146">
@@ -13959,16 +13959,16 @@
         <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E146" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="F146" s="5" t="n">
-        <v>0.0016236162361623616</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="147">
@@ -13979,16 +13979,16 @@
         <v>29</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="E147" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F147" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="148">
@@ -13999,16 +13999,16 @@
         <v>29</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D148" t="s">
         <v>391</v>
       </c>
       <c r="E148" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F148" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="149">
@@ -14025,10 +14025,10 @@
         <v>392</v>
       </c>
       <c r="E149" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F149" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="150">
@@ -14039,16 +14039,16 @@
         <v>29</v>
       </c>
       <c r="C150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D150" t="s">
         <v>393</v>
       </c>
       <c r="E150" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="F150" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.002066420664206642</v>
       </c>
     </row>
     <row r="151">
@@ -14059,16 +14059,16 @@
         <v>29</v>
       </c>
       <c r="C151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D151" t="s">
-        <v>394</v>
+        <v>125</v>
       </c>
       <c r="E151" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F151" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="152">
@@ -14079,16 +14079,16 @@
         <v>29</v>
       </c>
       <c r="C152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E152" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="F152" s="5" t="n">
-        <v>0.002066420664206642</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="153">
@@ -14099,16 +14099,16 @@
         <v>29</v>
       </c>
       <c r="C153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D153" t="s">
-        <v>126</v>
+        <v>395</v>
       </c>
       <c r="E153" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F153" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="154">
@@ -14119,7 +14119,7 @@
         <v>29</v>
       </c>
       <c r="C154" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D154" t="s">
         <v>396</v>
@@ -14159,7 +14159,7 @@
         <v>29</v>
       </c>
       <c r="C156" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" t="s">
         <v>398</v>
@@ -14176,10 +14176,10 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C157" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D157" t="s">
         <v>399</v>
@@ -14196,7 +14196,7 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C158" t="s">
         <v>128</v>
@@ -14259,16 +14259,16 @@
         <v>30</v>
       </c>
       <c r="C161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D161" t="s">
         <v>403</v>
       </c>
       <c r="E161" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="162">
@@ -14282,13 +14282,13 @@
         <v>130</v>
       </c>
       <c r="D162" t="s">
-        <v>404</v>
+        <v>130</v>
       </c>
       <c r="E162" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="163">
@@ -14302,13 +14302,13 @@
         <v>130</v>
       </c>
       <c r="D163" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E163" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F163" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="164">
@@ -14319,10 +14319,10 @@
         <v>30</v>
       </c>
       <c r="C164" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="D164" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="E164" t="n">
         <v>3.0</v>
@@ -14339,16 +14339,16 @@
         <v>30</v>
       </c>
       <c r="C165" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="D165" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E165" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F165" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="166">
@@ -14356,19 +14356,19 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="D166" t="s">
-        <v>30</v>
+        <v>406</v>
       </c>
       <c r="E166" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F166" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="167">
@@ -14376,19 +14376,19 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="D167" t="s">
         <v>407</v>
       </c>
       <c r="E167" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F167" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="168">
@@ -14399,16 +14399,16 @@
         <v>31</v>
       </c>
       <c r="C168" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D168" t="s">
         <v>408</v>
       </c>
       <c r="E168" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F168" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="169">
@@ -14419,7 +14419,7 @@
         <v>31</v>
       </c>
       <c r="C169" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D169" t="s">
         <v>409</v>
@@ -14439,16 +14439,16 @@
         <v>31</v>
       </c>
       <c r="C170" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="D170" t="s">
-        <v>410</v>
+        <v>31</v>
       </c>
       <c r="E170" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="F170" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.002952029520295203</v>
       </c>
     </row>
     <row r="171">
@@ -14459,10 +14459,10 @@
         <v>31</v>
       </c>
       <c r="C171" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="D171" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E171" t="n">
         <v>1.0</v>
@@ -14479,16 +14479,16 @@
         <v>31</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="E172" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="F172" s="5" t="n">
-        <v>0.002952029520295203</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="173">
@@ -14499,16 +14499,16 @@
         <v>31</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D173" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E173" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F173" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="174">
@@ -14516,7 +14516,7 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C174" t="s">
         <v>136</v>
@@ -14525,10 +14525,10 @@
         <v>136</v>
       </c>
       <c r="E174" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="175">
@@ -14536,19 +14536,19 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C175" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E175" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F175" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="176">
@@ -14559,16 +14559,16 @@
         <v>32</v>
       </c>
       <c r="C176" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="D176" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="E176" t="n">
-        <v>2.0</v>
+        <v>42.0</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0061992619926199265</v>
       </c>
     </row>
     <row r="177">
@@ -14579,16 +14579,16 @@
         <v>32</v>
       </c>
       <c r="C177" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="D177" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E177" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F177" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="178">
@@ -14599,16 +14599,16 @@
         <v>32</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D178" t="s">
-        <v>32</v>
+        <v>414</v>
       </c>
       <c r="E178" t="n">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="F178" s="5" t="n">
-        <v>0.0061992619926199265</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="179">
@@ -14619,16 +14619,16 @@
         <v>32</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D179" t="s">
         <v>415</v>
       </c>
       <c r="E179" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F179" s="5" t="n">
-        <v>0.001033210332103321</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="180">
@@ -14636,19 +14636,19 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D180" t="s">
         <v>416</v>
       </c>
       <c r="E180" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F180" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="181">
@@ -14656,19 +14656,19 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C181" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D181" t="s">
-        <v>417</v>
+        <v>141</v>
       </c>
       <c r="E181" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F181" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="182">
@@ -14679,16 +14679,16 @@
         <v>33</v>
       </c>
       <c r="C182" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="D182" t="s">
-        <v>418</v>
+        <v>33</v>
       </c>
       <c r="E182" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="183">
@@ -14702,13 +14702,13 @@
         <v>142</v>
       </c>
       <c r="D183" t="s">
-        <v>142</v>
+        <v>417</v>
       </c>
       <c r="E183" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F183" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="184">
@@ -14719,16 +14719,16 @@
         <v>33</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="D184" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E184" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="185">
@@ -14736,19 +14736,19 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C185" t="s">
         <v>143</v>
       </c>
       <c r="D185" t="s">
-        <v>419</v>
+        <v>143</v>
       </c>
       <c r="E185" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F185" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="186">
@@ -14756,19 +14756,19 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C186" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D186" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E186" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F186" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="187">
@@ -14779,30 +14779,30 @@
         <v>34</v>
       </c>
       <c r="C187" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="D187" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
       <c r="E187" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F187" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C188" t="s">
         <v>145</v>
       </c>
       <c r="D188" t="s">
-        <v>145</v>
+        <v>419</v>
       </c>
       <c r="E188" t="n">
         <v>2.0</v>
@@ -14813,13 +14813,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="D189" t="s">
         <v>420</v>
@@ -14839,16 +14839,16 @@
         <v>35</v>
       </c>
       <c r="C190" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D190" t="s">
-        <v>421</v>
+        <v>147</v>
       </c>
       <c r="E190" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F190" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="191">
@@ -14862,7 +14862,7 @@
         <v>147</v>
       </c>
       <c r="D191" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E191" t="n">
         <v>1.0</v>
@@ -14885,10 +14885,10 @@
         <v>148</v>
       </c>
       <c r="E192" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F192" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="193">
@@ -14896,13 +14896,13 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C193" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D193" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E193" t="n">
         <v>1.0</v>
@@ -14916,19 +14916,19 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C194" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D194" t="s">
-        <v>149</v>
+        <v>423</v>
       </c>
       <c r="E194" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F194" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="195">
@@ -14936,7 +14936,7 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C195" t="s">
         <v>150</v>
@@ -14945,10 +14945,10 @@
         <v>424</v>
       </c>
       <c r="E195" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F195" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="196">
@@ -14959,16 +14959,16 @@
         <v>37</v>
       </c>
       <c r="C196" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D196" t="s">
         <v>425</v>
       </c>
       <c r="E196" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F196" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="197">
@@ -14979,16 +14979,16 @@
         <v>37</v>
       </c>
       <c r="C197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D197" t="s">
         <v>426</v>
       </c>
       <c r="E197" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F197" s="5" t="n">
-        <v>0.001033210332103321</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="198">
@@ -14996,7 +14996,7 @@
         <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s">
         <v>151</v>
@@ -15016,13 +15016,13 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
         <v>151</v>
       </c>
       <c r="D199" t="s">
-        <v>428</v>
+        <v>152</v>
       </c>
       <c r="E199" t="n">
         <v>1.0</v>
@@ -15042,13 +15042,13 @@
         <v>152</v>
       </c>
       <c r="D200" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E200" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F200" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="201">
@@ -15062,7 +15062,7 @@
         <v>152</v>
       </c>
       <c r="D201" t="s">
-        <v>153</v>
+        <v>429</v>
       </c>
       <c r="E201" t="n">
         <v>1.0</v>
@@ -15076,13 +15076,13 @@
         <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C202" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="D202" t="s">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="E202" t="n">
         <v>2.0</v>
@@ -15096,13 +15096,13 @@
         <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C203" t="s">
         <v>153</v>
       </c>
       <c r="D203" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E203" t="n">
         <v>1.0</v>
@@ -15116,13 +15116,13 @@
         <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="D204" t="s">
-        <v>39</v>
+        <v>431</v>
       </c>
       <c r="E204" t="n">
         <v>2.0</v>
@@ -15159,16 +15159,16 @@
         <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D206" t="s">
         <v>433</v>
       </c>
       <c r="E206" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F206" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="207">
@@ -15185,10 +15185,10 @@
         <v>434</v>
       </c>
       <c r="E207" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F207" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="208">
@@ -15205,10 +15205,10 @@
         <v>435</v>
       </c>
       <c r="E208" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F208" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="209">
@@ -15219,16 +15219,16 @@
         <v>40</v>
       </c>
       <c r="C209" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D209" t="s">
         <v>436</v>
       </c>
       <c r="E209" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F209" s="5" t="n">
-        <v>0.0011808118081180813</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="210">
@@ -15239,16 +15239,16 @@
         <v>40</v>
       </c>
       <c r="C210" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D210" t="s">
         <v>437</v>
       </c>
       <c r="E210" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F210" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="211">
@@ -15259,16 +15259,16 @@
         <v>40</v>
       </c>
       <c r="C211" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D211" t="s">
         <v>438</v>
       </c>
       <c r="E211" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F211" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="212">
@@ -15285,10 +15285,10 @@
         <v>439</v>
       </c>
       <c r="E212" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F212" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="213">
@@ -15302,13 +15302,13 @@
         <v>156</v>
       </c>
       <c r="D213" t="s">
-        <v>440</v>
+        <v>49</v>
       </c>
       <c r="E213" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F213" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="214">
@@ -15319,16 +15319,16 @@
         <v>40</v>
       </c>
       <c r="C214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D214" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E214" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="F214" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>0.0025092250922509225</v>
       </c>
     </row>
     <row r="215">
@@ -15339,16 +15339,16 @@
         <v>40</v>
       </c>
       <c r="C215" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D215" t="s">
-        <v>49</v>
+        <v>441</v>
       </c>
       <c r="E215" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="F215" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.002066420664206642</v>
       </c>
     </row>
     <row r="216">
@@ -15359,16 +15359,16 @@
         <v>40</v>
       </c>
       <c r="C216" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D216" t="s">
         <v>442</v>
       </c>
       <c r="E216" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="F216" s="5" t="n">
-        <v>0.0025092250922509225</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="217">
@@ -15379,16 +15379,16 @@
         <v>40</v>
       </c>
       <c r="C217" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D217" t="s">
-        <v>443</v>
+        <v>156</v>
       </c>
       <c r="E217" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="F217" s="5" t="n">
-        <v>0.002066420664206642</v>
+        <v>0.003985239852398524</v>
       </c>
     </row>
     <row r="218">
@@ -15399,16 +15399,16 @@
         <v>40</v>
       </c>
       <c r="C218" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D218" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E218" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="F218" s="5" t="n">
-        <v>0.0011808118081180813</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="219">
@@ -15419,16 +15419,16 @@
         <v>40</v>
       </c>
       <c r="C219" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D219" t="s">
-        <v>157</v>
+        <v>444</v>
       </c>
       <c r="E219" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="F219" s="5" t="n">
-        <v>0.003985239852398524</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="220">
@@ -15439,16 +15439,16 @@
         <v>40</v>
       </c>
       <c r="C220" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D220" t="s">
         <v>445</v>
       </c>
       <c r="E220" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="F220" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.004428044280442804</v>
       </c>
     </row>
     <row r="221">
@@ -15459,7 +15459,7 @@
         <v>40</v>
       </c>
       <c r="C221" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D221" t="s">
         <v>446</v>
@@ -15479,16 +15479,16 @@
         <v>40</v>
       </c>
       <c r="C222" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D222" t="s">
         <v>447</v>
       </c>
       <c r="E222" t="n">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
       <c r="F222" s="5" t="n">
-        <v>0.004428044280442804</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="223">
@@ -15499,7 +15499,7 @@
         <v>40</v>
       </c>
       <c r="C223" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D223" t="s">
         <v>448</v>
@@ -15519,7 +15519,7 @@
         <v>40</v>
       </c>
       <c r="C224" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D224" t="s">
         <v>449</v>
@@ -15539,16 +15539,16 @@
         <v>40</v>
       </c>
       <c r="C225" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D225" t="s">
         <v>450</v>
       </c>
       <c r="E225" t="n">
-        <v>1.0</v>
+        <v>41.0</v>
       </c>
       <c r="F225" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.006051660516605166</v>
       </c>
     </row>
     <row r="226">
@@ -15585,10 +15585,10 @@
         <v>452</v>
       </c>
       <c r="E227" t="n">
-        <v>41.0</v>
+        <v>1.0</v>
       </c>
       <c r="F227" s="5" t="n">
-        <v>0.006051660516605166</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="228">
@@ -15599,16 +15599,16 @@
         <v>40</v>
       </c>
       <c r="C228" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D228" t="s">
         <v>453</v>
       </c>
       <c r="E228" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F228" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="229">
@@ -15619,16 +15619,16 @@
         <v>40</v>
       </c>
       <c r="C229" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D229" t="s">
         <v>454</v>
       </c>
       <c r="E229" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F229" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="230">
@@ -15659,7 +15659,7 @@
         <v>40</v>
       </c>
       <c r="C231" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D231" t="s">
         <v>456</v>
@@ -15685,10 +15685,10 @@
         <v>457</v>
       </c>
       <c r="E232" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F232" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="233">
@@ -15705,10 +15705,10 @@
         <v>458</v>
       </c>
       <c r="E233" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F233" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="234">
@@ -15725,10 +15725,10 @@
         <v>459</v>
       </c>
       <c r="E234" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F234" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="235">
@@ -15745,10 +15745,10 @@
         <v>460</v>
       </c>
       <c r="E235" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F235" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="236">
@@ -15765,10 +15765,10 @@
         <v>461</v>
       </c>
       <c r="E236" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F236" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="237">
@@ -15779,16 +15779,16 @@
         <v>40</v>
       </c>
       <c r="C237" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D237" t="s">
         <v>462</v>
       </c>
       <c r="E237" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="F237" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>0.0014760147601476014</v>
       </c>
     </row>
     <row r="238">
@@ -15799,16 +15799,16 @@
         <v>40</v>
       </c>
       <c r="C238" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D238" t="s">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="E238" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="F238" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>0.0030996309963099633</v>
       </c>
     </row>
     <row r="239">
@@ -15822,13 +15822,13 @@
         <v>162</v>
       </c>
       <c r="D239" t="s">
-        <v>464</v>
+        <v>162</v>
       </c>
       <c r="E239" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F239" s="5" t="n">
-        <v>0.0014760147601476014</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="240">
@@ -15839,16 +15839,16 @@
         <v>40</v>
       </c>
       <c r="C240" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D240" t="s">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="E240" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="F240" s="5" t="n">
-        <v>0.0030996309963099633</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="241">
@@ -15859,10 +15859,10 @@
         <v>40</v>
       </c>
       <c r="C241" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D241" t="s">
-        <v>163</v>
+        <v>464</v>
       </c>
       <c r="E241" t="n">
         <v>1.0</v>
@@ -15879,16 +15879,16 @@
         <v>40</v>
       </c>
       <c r="C242" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D242" t="s">
         <v>465</v>
       </c>
       <c r="E242" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F242" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0014760147601476014</v>
       </c>
     </row>
     <row r="243">
@@ -15902,13 +15902,13 @@
         <v>165</v>
       </c>
       <c r="D243" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="E243" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F243" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="244">
@@ -15922,13 +15922,13 @@
         <v>166</v>
       </c>
       <c r="D244" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E244" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F244" s="5" t="n">
-        <v>0.0014760147601476014</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="245">
@@ -15945,10 +15945,10 @@
         <v>166</v>
       </c>
       <c r="E245" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="F245" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>0.0016236162361623616</v>
       </c>
     </row>
     <row r="246">
@@ -15959,44 +15959,44 @@
         <v>40</v>
       </c>
       <c r="C246" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D246" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E246" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F246" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C247" t="s">
         <v>167</v>
       </c>
       <c r="D247" t="s">
-        <v>167</v>
+        <v>468</v>
       </c>
       <c r="E247" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="F247" s="5" t="n">
-        <v>0.0016236162361623616</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C248" t="s">
         <v>167</v>
@@ -16005,10 +16005,10 @@
         <v>469</v>
       </c>
       <c r="E248" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="F248" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.0030996309963099633</v>
       </c>
     </row>
     <row r="249">
@@ -16019,16 +16019,16 @@
         <v>41</v>
       </c>
       <c r="C249" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D249" t="s">
         <v>470</v>
       </c>
       <c r="E249" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F249" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="250">
@@ -16039,16 +16039,16 @@
         <v>41</v>
       </c>
       <c r="C250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D250" t="s">
         <v>471</v>
       </c>
       <c r="E250" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="F250" s="5" t="n">
-        <v>0.0030996309963099633</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="251">
@@ -16065,10 +16065,10 @@
         <v>472</v>
       </c>
       <c r="E251" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F251" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="252">
@@ -16076,19 +16076,19 @@
         <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C252" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="D252" t="s">
         <v>473</v>
       </c>
       <c r="E252" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F252" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="253">
@@ -16096,13 +16096,13 @@
         <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C253" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="D253" t="s">
-        <v>474</v>
+        <v>43</v>
       </c>
       <c r="E253" t="n">
         <v>1.0</v>
@@ -16116,19 +16116,19 @@
         <v>8</v>
       </c>
       <c r="B254" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C254" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="D254" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E254" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F254" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="255">
@@ -16136,19 +16136,19 @@
         <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C255" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D255" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E255" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F255" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="256">
@@ -16156,13 +16156,13 @@
         <v>8</v>
       </c>
       <c r="B256" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C256" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D256" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E256" t="n">
         <v>1.0</v>
@@ -16176,19 +16176,19 @@
         <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C257" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="D257" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
       <c r="E257" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="F257" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0032472324723247232</v>
       </c>
     </row>
     <row r="258">
@@ -16196,7 +16196,7 @@
         <v>8</v>
       </c>
       <c r="B258" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C258" t="s">
         <v>172</v>
@@ -16216,19 +16216,19 @@
         <v>8</v>
       </c>
       <c r="B259" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C259" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="D259" t="s">
         <v>478</v>
       </c>
       <c r="E259" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="F259" s="5" t="n">
-        <v>0.0032472324723247232</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="260">
@@ -16236,19 +16236,19 @@
         <v>8</v>
       </c>
       <c r="B260" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C260" t="s">
         <v>173</v>
       </c>
       <c r="D260" t="s">
-        <v>479</v>
+        <v>173</v>
       </c>
       <c r="E260" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="F260" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0025092250922509225</v>
       </c>
     </row>
     <row r="261">
@@ -16262,13 +16262,13 @@
         <v>174</v>
       </c>
       <c r="D261" t="s">
-        <v>480</v>
+        <v>174</v>
       </c>
       <c r="E261" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F261" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="262">
@@ -16282,13 +16282,13 @@
         <v>174</v>
       </c>
       <c r="D262" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="E262" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="F262" s="5" t="n">
-        <v>0.0025092250922509225</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="263">
@@ -16305,10 +16305,10 @@
         <v>175</v>
       </c>
       <c r="E263" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="F263" s="5" t="n">
-        <v>0.0013284132841328412</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="264">
@@ -16319,10 +16319,10 @@
         <v>48</v>
       </c>
       <c r="C264" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D264" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E264" t="n">
         <v>4.0</v>
@@ -16342,7 +16342,7 @@
         <v>176</v>
       </c>
       <c r="D265" t="s">
-        <v>176</v>
+        <v>481</v>
       </c>
       <c r="E265" t="n">
         <v>1.0</v>
@@ -16362,13 +16362,13 @@
         <v>177</v>
       </c>
       <c r="D266" t="s">
-        <v>482</v>
+        <v>177</v>
       </c>
       <c r="E266" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F266" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="267">
@@ -16382,7 +16382,7 @@
         <v>177</v>
       </c>
       <c r="D267" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E267" t="n">
         <v>1.0</v>
@@ -16393,10 +16393,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C268" t="s">
         <v>178</v>
@@ -16405,30 +16405,30 @@
         <v>178</v>
       </c>
       <c r="E268" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F268" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C269" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D269" t="s">
-        <v>484</v>
+        <v>179</v>
       </c>
       <c r="E269" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F269" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="270">
@@ -16439,16 +16439,16 @@
         <v>49</v>
       </c>
       <c r="C270" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D270" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E270" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F270" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="271">
@@ -16459,16 +16459,16 @@
         <v>49</v>
       </c>
       <c r="C271" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D271" t="s">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="E271" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="F271" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.002066420664206642</v>
       </c>
     </row>
     <row r="272">
@@ -16479,16 +16479,16 @@
         <v>49</v>
       </c>
       <c r="C272" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D272" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E272" t="n">
-        <v>3.0</v>
+        <v>29.0</v>
       </c>
       <c r="F272" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.004280442804428044</v>
       </c>
     </row>
     <row r="273">
@@ -16502,13 +16502,13 @@
         <v>182</v>
       </c>
       <c r="D273" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E273" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="F273" s="5" t="n">
-        <v>0.002066420664206642</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="274">
@@ -16525,10 +16525,10 @@
         <v>183</v>
       </c>
       <c r="E274" t="n">
-        <v>29.0</v>
+        <v>6.0</v>
       </c>
       <c r="F274" s="5" t="n">
-        <v>0.004280442804428044</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="275">
@@ -16542,13 +16542,13 @@
         <v>183</v>
       </c>
       <c r="D275" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E275" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="F275" s="5" t="n">
-        <v>0.0013284132841328412</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="276">
@@ -16559,16 +16559,16 @@
         <v>49</v>
       </c>
       <c r="C276" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D276" t="s">
-        <v>184</v>
+        <v>486</v>
       </c>
       <c r="E276" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F276" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="277">
@@ -16582,13 +16582,13 @@
         <v>184</v>
       </c>
       <c r="D277" t="s">
-        <v>487</v>
+        <v>184</v>
       </c>
       <c r="E277" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F277" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="278">
@@ -16599,16 +16599,16 @@
         <v>49</v>
       </c>
       <c r="C278" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D278" t="s">
-        <v>488</v>
+        <v>185</v>
       </c>
       <c r="E278" t="n">
-        <v>7.0</v>
+        <v>44.0</v>
       </c>
       <c r="F278" s="5" t="n">
-        <v>0.001033210332103321</v>
+        <v>0.0064944649446494465</v>
       </c>
     </row>
     <row r="279">
@@ -16622,13 +16622,13 @@
         <v>185</v>
       </c>
       <c r="D279" t="s">
-        <v>185</v>
+        <v>487</v>
       </c>
       <c r="E279" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F279" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0014760147601476014</v>
       </c>
     </row>
     <row r="280">
@@ -16645,10 +16645,10 @@
         <v>186</v>
       </c>
       <c r="E280" t="n">
-        <v>44.0</v>
+        <v>4.0</v>
       </c>
       <c r="F280" s="5" t="n">
-        <v>0.0064944649446494465</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="281">
@@ -16662,13 +16662,13 @@
         <v>186</v>
       </c>
       <c r="D281" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E281" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F281" s="5" t="n">
-        <v>0.0014760147601476014</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="282">
@@ -16685,10 +16685,10 @@
         <v>187</v>
       </c>
       <c r="E282" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F282" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="283">
@@ -16699,16 +16699,16 @@
         <v>49</v>
       </c>
       <c r="C283" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D283" t="s">
-        <v>490</v>
+        <v>188</v>
       </c>
       <c r="E283" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F283" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="284">
@@ -16722,7 +16722,7 @@
         <v>188</v>
       </c>
       <c r="D284" t="s">
-        <v>188</v>
+        <v>489</v>
       </c>
       <c r="E284" t="n">
         <v>1.0</v>
@@ -16745,10 +16745,10 @@
         <v>189</v>
       </c>
       <c r="E285" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="F285" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.0016236162361623616</v>
       </c>
     </row>
     <row r="286">
@@ -16762,13 +16762,13 @@
         <v>189</v>
       </c>
       <c r="D286" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E286" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F286" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="287">
@@ -16782,13 +16782,13 @@
         <v>190</v>
       </c>
       <c r="D287" t="s">
-        <v>190</v>
+        <v>491</v>
       </c>
       <c r="E287" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="F287" s="5" t="n">
-        <v>0.0016236162361623616</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="288">
@@ -16802,7 +16802,7 @@
         <v>190</v>
       </c>
       <c r="D288" t="s">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="E288" t="n">
         <v>2.0</v>
@@ -16822,7 +16822,7 @@
         <v>191</v>
       </c>
       <c r="D289" t="s">
-        <v>493</v>
+        <v>191</v>
       </c>
       <c r="E289" t="n">
         <v>4.0</v>
@@ -16839,16 +16839,16 @@
         <v>49</v>
       </c>
       <c r="C290" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D290" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E290" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F290" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="291">
@@ -16862,13 +16862,13 @@
         <v>192</v>
       </c>
       <c r="D291" t="s">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="E291" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F291" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="292">
@@ -16885,10 +16885,10 @@
         <v>193</v>
       </c>
       <c r="E292" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="F292" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>0.0026568265682656825</v>
       </c>
     </row>
     <row r="293">
@@ -16902,13 +16902,13 @@
         <v>193</v>
       </c>
       <c r="D293" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E293" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F293" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="294">
@@ -16919,16 +16919,16 @@
         <v>49</v>
       </c>
       <c r="C294" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D294" t="s">
-        <v>194</v>
+        <v>494</v>
       </c>
       <c r="E294" t="n">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="F294" s="5" t="n">
-        <v>0.0026568265682656825</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="295">
@@ -16942,13 +16942,13 @@
         <v>194</v>
       </c>
       <c r="D295" t="s">
-        <v>495</v>
+        <v>194</v>
       </c>
       <c r="E295" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F295" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="296">
@@ -16962,13 +16962,13 @@
         <v>194</v>
       </c>
       <c r="D296" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E296" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F296" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="297">
@@ -16979,16 +16979,16 @@
         <v>49</v>
       </c>
       <c r="C297" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D297" t="s">
-        <v>195</v>
+        <v>496</v>
       </c>
       <c r="E297" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F297" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="298">
@@ -17002,13 +17002,13 @@
         <v>195</v>
       </c>
       <c r="D298" t="s">
-        <v>497</v>
+        <v>195</v>
       </c>
       <c r="E298" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F298" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="299">
@@ -17019,10 +17019,10 @@
         <v>49</v>
       </c>
       <c r="C299" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D299" t="s">
-        <v>498</v>
+        <v>196</v>
       </c>
       <c r="E299" t="n">
         <v>1.0</v>
@@ -17039,16 +17039,16 @@
         <v>49</v>
       </c>
       <c r="C300" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D300" t="s">
-        <v>196</v>
+        <v>497</v>
       </c>
       <c r="E300" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F300" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="301">
@@ -17059,16 +17059,16 @@
         <v>49</v>
       </c>
       <c r="C301" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D301" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E301" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F301" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="302">
@@ -17079,16 +17079,16 @@
         <v>49</v>
       </c>
       <c r="C302" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D302" t="s">
-        <v>499</v>
+        <v>199</v>
       </c>
       <c r="E302" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F302" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="303">
@@ -17099,16 +17099,16 @@
         <v>49</v>
       </c>
       <c r="C303" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D303" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E303" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F303" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="304">
@@ -17122,13 +17122,13 @@
         <v>200</v>
       </c>
       <c r="D304" t="s">
-        <v>200</v>
+        <v>498</v>
       </c>
       <c r="E304" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F304" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="305">
@@ -17145,10 +17145,10 @@
         <v>201</v>
       </c>
       <c r="E305" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="F305" s="5" t="n">
-        <v>0.0013284132841328412</v>
+        <v>0.002804428044280443</v>
       </c>
     </row>
     <row r="306">
@@ -17159,16 +17159,16 @@
         <v>49</v>
       </c>
       <c r="C306" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D306" t="s">
-        <v>500</v>
+        <v>202</v>
       </c>
       <c r="E306" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F306" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="307">
@@ -17179,16 +17179,16 @@
         <v>49</v>
       </c>
       <c r="C307" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D307" t="s">
-        <v>202</v>
+        <v>499</v>
       </c>
       <c r="E307" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="F307" s="5" t="n">
-        <v>0.002804428044280443</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="308">
@@ -17199,16 +17199,16 @@
         <v>49</v>
       </c>
       <c r="C308" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D308" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E308" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F308" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="309">
@@ -17219,16 +17219,16 @@
         <v>49</v>
       </c>
       <c r="C309" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D309" t="s">
-        <v>501</v>
+        <v>205</v>
       </c>
       <c r="E309" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F309" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="310">
@@ -17239,16 +17239,16 @@
         <v>49</v>
       </c>
       <c r="C310" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D310" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E310" t="n">
-        <v>3.0</v>
+        <v>43.0</v>
       </c>
       <c r="F310" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.006346863468634686</v>
       </c>
     </row>
     <row r="311">
@@ -17262,13 +17262,13 @@
         <v>206</v>
       </c>
       <c r="D311" t="s">
-        <v>206</v>
+        <v>500</v>
       </c>
       <c r="E311" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="F311" s="5" t="n">
-        <v>0.0013284132841328412</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="312">
@@ -17276,19 +17276,19 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C312" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D312" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="E312" t="n">
-        <v>43.0</v>
+        <v>7.0</v>
       </c>
       <c r="F312" s="5" t="n">
-        <v>0.006346863468634686</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="313">
@@ -17296,19 +17296,19 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C313" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D313" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E313" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F313" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="314">
@@ -17316,19 +17316,19 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C314" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="D314" t="s">
-        <v>50</v>
+        <v>502</v>
       </c>
       <c r="E314" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F314" s="5" t="n">
-        <v>0.001033210332103321</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="315">
@@ -17336,19 +17336,19 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C315" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="D315" t="s">
-        <v>503</v>
+        <v>9</v>
       </c>
       <c r="E315" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F315" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="316">
@@ -17362,7 +17362,7 @@
         <v>208</v>
       </c>
       <c r="D316" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E316" t="n">
         <v>1.0</v>
@@ -17379,16 +17379,16 @@
         <v>51</v>
       </c>
       <c r="C317" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D317" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="E317" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F317" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="318">
@@ -17402,7 +17402,7 @@
         <v>209</v>
       </c>
       <c r="D318" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E318" t="n">
         <v>1.0</v>
@@ -17419,16 +17419,16 @@
         <v>51</v>
       </c>
       <c r="C319" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="D319" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="E319" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="F319" s="5" t="n">
-        <v>0.001033210332103321</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="320">
@@ -17442,13 +17442,13 @@
         <v>210</v>
       </c>
       <c r="D320" t="s">
-        <v>506</v>
+        <v>210</v>
       </c>
       <c r="E320" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F320" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="321">
@@ -17459,16 +17459,16 @@
         <v>51</v>
       </c>
       <c r="C321" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="D321" t="s">
-        <v>51</v>
+        <v>505</v>
       </c>
       <c r="E321" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F321" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="322">
@@ -17479,16 +17479,16 @@
         <v>51</v>
       </c>
       <c r="C322" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D322" t="s">
-        <v>211</v>
+        <v>506</v>
       </c>
       <c r="E322" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="F322" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0014760147601476014</v>
       </c>
     </row>
     <row r="323">
@@ -17496,7 +17496,7 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C323" t="s">
         <v>211</v>
@@ -17505,10 +17505,10 @@
         <v>507</v>
       </c>
       <c r="E323" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F323" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="324">
@@ -17516,19 +17516,19 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C324" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D324" t="s">
         <v>508</v>
       </c>
       <c r="E324" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F324" s="5" t="n">
-        <v>0.0014760147601476014</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="325">
@@ -17545,10 +17545,10 @@
         <v>509</v>
       </c>
       <c r="E325" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F325" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="326">
@@ -17559,7 +17559,7 @@
         <v>52</v>
       </c>
       <c r="C326" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D326" t="s">
         <v>510</v>
@@ -17579,7 +17579,7 @@
         <v>52</v>
       </c>
       <c r="C327" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D327" t="s">
         <v>511</v>
@@ -17619,16 +17619,16 @@
         <v>52</v>
       </c>
       <c r="C329" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D329" t="s">
         <v>513</v>
       </c>
       <c r="E329" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F329" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="330">
@@ -17645,10 +17645,10 @@
         <v>514</v>
       </c>
       <c r="E330" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F330" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="331">
@@ -17659,16 +17659,16 @@
         <v>52</v>
       </c>
       <c r="C331" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D331" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="E331" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="F331" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.002066420664206642</v>
       </c>
     </row>
     <row r="332">
@@ -17679,16 +17679,16 @@
         <v>52</v>
       </c>
       <c r="C332" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D332" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E332" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F332" s="5" t="n">
-        <v>0.001033210332103321</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="333">
@@ -17702,13 +17702,13 @@
         <v>215</v>
       </c>
       <c r="D333" t="s">
-        <v>52</v>
+        <v>516</v>
       </c>
       <c r="E333" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="F333" s="5" t="n">
-        <v>0.002066420664206642</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="334">
@@ -17722,13 +17722,13 @@
         <v>215</v>
       </c>
       <c r="D334" t="s">
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="E334" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="F334" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="335">
@@ -17742,13 +17742,13 @@
         <v>216</v>
       </c>
       <c r="D335" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E335" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F335" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="336">
@@ -17782,53 +17782,53 @@
         <v>217</v>
       </c>
       <c r="D337" t="s">
-        <v>519</v>
+        <v>217</v>
       </c>
       <c r="E337" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F337" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B338" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C338" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D338" t="s">
-        <v>217</v>
+        <v>518</v>
       </c>
       <c r="E338" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F338" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B339" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C339" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D339" t="s">
-        <v>218</v>
+        <v>519</v>
       </c>
       <c r="E339" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="F339" s="5" t="n">
-        <v>0.0013284132841328412</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="340">
@@ -17839,7 +17839,7 @@
         <v>53</v>
       </c>
       <c r="C340" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D340" t="s">
         <v>520</v>
@@ -17862,13 +17862,13 @@
         <v>220</v>
       </c>
       <c r="D341" t="s">
-        <v>521</v>
+        <v>220</v>
       </c>
       <c r="E341" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F341" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="342">
@@ -17882,7 +17882,7 @@
         <v>221</v>
       </c>
       <c r="D342" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E342" t="n">
         <v>1.0</v>
@@ -17902,7 +17902,7 @@
         <v>221</v>
       </c>
       <c r="D343" t="s">
-        <v>221</v>
+        <v>522</v>
       </c>
       <c r="E343" t="n">
         <v>1.0</v>
@@ -17925,10 +17925,10 @@
         <v>523</v>
       </c>
       <c r="E344" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F344" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="345">
@@ -17959,16 +17959,16 @@
         <v>53</v>
       </c>
       <c r="C346" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D346" t="s">
         <v>525</v>
       </c>
       <c r="E346" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F346" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="347">
@@ -17979,16 +17979,16 @@
         <v>53</v>
       </c>
       <c r="C347" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D347" t="s">
         <v>526</v>
       </c>
       <c r="E347" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F347" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="348">
@@ -18002,7 +18002,7 @@
         <v>223</v>
       </c>
       <c r="D348" t="s">
-        <v>527</v>
+        <v>223</v>
       </c>
       <c r="E348" t="n">
         <v>1.0</v>
@@ -18016,19 +18016,19 @@
         <v>10</v>
       </c>
       <c r="B349" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C349" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D349" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E349" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="F349" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.002214022140221402</v>
       </c>
     </row>
     <row r="350">
@@ -18036,19 +18036,19 @@
         <v>10</v>
       </c>
       <c r="B350" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C350" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D350" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E350" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F350" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="351">
@@ -18059,16 +18059,16 @@
         <v>54</v>
       </c>
       <c r="C351" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D351" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E351" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="F351" s="5" t="n">
-        <v>0.002214022140221402</v>
+        <v>0.0016236162361623616</v>
       </c>
     </row>
     <row r="352">
@@ -18085,10 +18085,10 @@
         <v>226</v>
       </c>
       <c r="E352" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F352" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="353">
@@ -18099,16 +18099,16 @@
         <v>54</v>
       </c>
       <c r="C353" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D353" t="s">
-        <v>530</v>
+        <v>239</v>
       </c>
       <c r="E353" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="F353" s="5" t="n">
-        <v>0.0016236162361623616</v>
+        <v>0.0014760147601476014</v>
       </c>
     </row>
     <row r="354">
@@ -18119,16 +18119,16 @@
         <v>54</v>
       </c>
       <c r="C354" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D354" t="s">
-        <v>227</v>
+        <v>529</v>
       </c>
       <c r="E354" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="F354" s="5" t="n">
-        <v>0.001033210332103321</v>
+        <v>0.0017712177121771218</v>
       </c>
     </row>
     <row r="355">
@@ -18142,13 +18142,13 @@
         <v>228</v>
       </c>
       <c r="D355" t="s">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="E355" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="F355" s="5" t="n">
-        <v>0.0014760147601476014</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="356">
@@ -18162,13 +18162,13 @@
         <v>229</v>
       </c>
       <c r="D356" t="s">
-        <v>531</v>
+        <v>229</v>
       </c>
       <c r="E356" t="n">
-        <v>12.0</v>
+        <v>50.0</v>
       </c>
       <c r="F356" s="5" t="n">
-        <v>0.0017712177121771218</v>
+        <v>0.007380073800738007</v>
       </c>
     </row>
     <row r="357">
@@ -18182,13 +18182,13 @@
         <v>229</v>
       </c>
       <c r="D357" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E357" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F357" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.001033210332103321</v>
       </c>
     </row>
     <row r="358">
@@ -18202,13 +18202,13 @@
         <v>230</v>
       </c>
       <c r="D358" t="s">
-        <v>230</v>
+        <v>532</v>
       </c>
       <c r="E358" t="n">
-        <v>50.0</v>
+        <v>118.0</v>
       </c>
       <c r="F358" s="5" t="n">
-        <v>0.007380073800738007</v>
+        <v>0.017416974169741698</v>
       </c>
     </row>
     <row r="359">
@@ -18219,16 +18219,16 @@
         <v>54</v>
       </c>
       <c r="C359" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D359" t="s">
         <v>533</v>
       </c>
       <c r="E359" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="F359" s="5" t="n">
-        <v>0.001033210332103321</v>
+        <v>0.001918819188191882</v>
       </c>
     </row>
     <row r="360">
@@ -18242,13 +18242,13 @@
         <v>231</v>
       </c>
       <c r="D360" t="s">
-        <v>534</v>
+        <v>231</v>
       </c>
       <c r="E360" t="n">
-        <v>118.0</v>
+        <v>233.0</v>
       </c>
       <c r="F360" s="5" t="n">
-        <v>0.017416974169741698</v>
+        <v>0.03439114391143912</v>
       </c>
     </row>
     <row r="361">
@@ -18262,13 +18262,13 @@
         <v>232</v>
       </c>
       <c r="D361" t="s">
-        <v>535</v>
+        <v>232</v>
       </c>
       <c r="E361" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="F361" s="5" t="n">
-        <v>0.001918819188191882</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="362">
@@ -18282,13 +18282,13 @@
         <v>232</v>
       </c>
       <c r="D362" t="s">
-        <v>232</v>
+        <v>534</v>
       </c>
       <c r="E362" t="n">
-        <v>233.0</v>
+        <v>1.0</v>
       </c>
       <c r="F362" s="5" t="n">
-        <v>0.03439114391143912</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="363">
@@ -18319,16 +18319,16 @@
         <v>54</v>
       </c>
       <c r="C364" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D364" t="s">
-        <v>536</v>
+        <v>234</v>
       </c>
       <c r="E364" t="n">
-        <v>1.0</v>
+        <v>48.0</v>
       </c>
       <c r="F364" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>0.007084870848708487</v>
       </c>
     </row>
     <row r="365">
@@ -18339,16 +18339,16 @@
         <v>54</v>
       </c>
       <c r="C365" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D365" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E365" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F365" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="366">
@@ -18359,16 +18359,16 @@
         <v>54</v>
       </c>
       <c r="C366" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D366" t="s">
-        <v>235</v>
+        <v>535</v>
       </c>
       <c r="E366" t="n">
-        <v>48.0</v>
+        <v>2.0</v>
       </c>
       <c r="F366" s="5" t="n">
-        <v>0.007084870848708487</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="367">
@@ -18379,16 +18379,16 @@
         <v>54</v>
       </c>
       <c r="C367" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D367" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E367" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="F367" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>0.0013284132841328412</v>
       </c>
     </row>
     <row r="368">
@@ -18399,16 +18399,16 @@
         <v>54</v>
       </c>
       <c r="C368" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D368" t="s">
-        <v>537</v>
+        <v>238</v>
       </c>
       <c r="E368" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="F368" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>0.0016236162361623616</v>
       </c>
     </row>
     <row r="369">
@@ -18419,16 +18419,16 @@
         <v>54</v>
       </c>
       <c r="C369" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D369" t="s">
-        <v>238</v>
+        <v>536</v>
       </c>
       <c r="E369" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="F369" s="5" t="n">
-        <v>0.0013284132841328412</v>
+        <v>8.856088560885609E-4</v>
       </c>
     </row>
     <row r="370">
@@ -18436,19 +18436,19 @@
         <v>10</v>
       </c>
       <c r="B370" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C370" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D370" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E370" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="F370" s="5" t="n">
-        <v>0.0016236162361623616</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="371">
@@ -18456,19 +18456,19 @@
         <v>10</v>
       </c>
       <c r="B371" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C371" t="s">
         <v>240</v>
       </c>
       <c r="D371" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E371" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="F371" s="5" t="n">
-        <v>8.856088560885609E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="372">
@@ -18479,16 +18479,16 @@
         <v>55</v>
       </c>
       <c r="C372" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D372" t="s">
-        <v>241</v>
+        <v>538</v>
       </c>
       <c r="E372" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F372" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="373">
@@ -18499,16 +18499,16 @@
         <v>55</v>
       </c>
       <c r="C373" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D373" t="s">
         <v>539</v>
       </c>
       <c r="E373" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F373" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="374">
@@ -18525,10 +18525,10 @@
         <v>540</v>
       </c>
       <c r="E374" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F374" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>7.380073800738007E-4</v>
       </c>
     </row>
     <row r="375">
@@ -18545,10 +18545,10 @@
         <v>541</v>
       </c>
       <c r="E375" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="F375" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>0.0017712177121771218</v>
       </c>
     </row>
     <row r="376">
@@ -18559,16 +18559,16 @@
         <v>55</v>
       </c>
       <c r="C376" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D376" t="s">
-        <v>542</v>
+        <v>241</v>
       </c>
       <c r="E376" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F376" s="5" t="n">
-        <v>7.380073800738007E-4</v>
+        <v>0.0011808118081180813</v>
       </c>
     </row>
     <row r="377">
@@ -18579,16 +18579,16 @@
         <v>55</v>
       </c>
       <c r="C377" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D377" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E377" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="F377" s="5" t="n">
-        <v>0.0017712177121771218</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="378">
@@ -18599,16 +18599,16 @@
         <v>55</v>
       </c>
       <c r="C378" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="D378" t="s">
-        <v>242</v>
+        <v>543</v>
       </c>
       <c r="E378" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="F378" s="5" t="n">
-        <v>0.0011808118081180813</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="379">
@@ -18616,7 +18616,7 @@
         <v>10</v>
       </c>
       <c r="B379" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C379" t="s">
         <v>242</v>
@@ -18625,10 +18625,10 @@
         <v>544</v>
       </c>
       <c r="E379" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F379" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="380">
@@ -18636,10 +18636,10 @@
         <v>10</v>
       </c>
       <c r="B380" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C380" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="D380" t="s">
         <v>545</v>
@@ -18665,10 +18665,10 @@
         <v>546</v>
       </c>
       <c r="E381" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F381" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>4.4280442804428045E-4</v>
       </c>
     </row>
     <row r="382">
@@ -18699,16 +18699,16 @@
         <v>56</v>
       </c>
       <c r="C383" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D383" t="s">
         <v>548</v>
       </c>
       <c r="E383" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F383" s="5" t="n">
-        <v>4.4280442804428045E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="384">
@@ -18719,7 +18719,7 @@
         <v>56</v>
       </c>
       <c r="C384" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D384" t="s">
         <v>549</v>
@@ -18739,16 +18739,16 @@
         <v>56</v>
       </c>
       <c r="C385" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D385" t="s">
         <v>550</v>
       </c>
       <c r="E385" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F385" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="386">
@@ -18762,7 +18762,7 @@
         <v>244</v>
       </c>
       <c r="D386" t="s">
-        <v>551</v>
+        <v>244</v>
       </c>
       <c r="E386" t="n">
         <v>1.0</v>
@@ -18776,19 +18776,19 @@
         <v>10</v>
       </c>
       <c r="B387" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C387" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D387" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E387" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F387" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>5.904059040590406E-4</v>
       </c>
     </row>
     <row r="388">
@@ -18796,19 +18796,19 @@
         <v>10</v>
       </c>
       <c r="B388" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C388" t="s">
         <v>245</v>
       </c>
       <c r="D388" t="s">
-        <v>245</v>
+        <v>552</v>
       </c>
       <c r="E388" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F388" s="5" t="n">
-        <v>1.4760147601476016E-4</v>
+        <v>2.952029520295203E-4</v>
       </c>
     </row>
     <row r="389">
@@ -18819,16 +18819,16 @@
         <v>57</v>
       </c>
       <c r="C389" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D389" t="s">
         <v>553</v>
       </c>
       <c r="E389" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F389" s="5" t="n">
-        <v>5.904059040590406E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="390">
@@ -18839,7 +18839,7 @@
         <v>57</v>
       </c>
       <c r="C390" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D390" t="s">
         <v>554</v>
@@ -18876,19 +18876,19 @@
         <v>10</v>
       </c>
       <c r="B392" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C392" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D392" t="s">
         <v>556</v>
       </c>
       <c r="E392" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F392" s="5" t="n">
-        <v>2.952029520295203E-4</v>
+        <v>1.4760147601476016E-4</v>
       </c>
     </row>
     <row r="393">
@@ -18896,7 +18896,7 @@
         <v>10</v>
       </c>
       <c r="B393" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C393" t="s">
         <v>247</v>
@@ -19539,7 +19539,7 @@
         <v>10</v>
       </c>
       <c r="C425" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D425" t="s">
         <v>580</v>
@@ -19639,7 +19639,7 @@
         <v>59</v>
       </c>
       <c r="C430" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D430" t="s">
         <v>582</v>
@@ -19899,10 +19899,10 @@
         <v>61</v>
       </c>
       <c r="C443" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D443" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E443" t="n">
         <v>15.0</v>
@@ -20019,7 +20019,7 @@
         <v>61</v>
       </c>
       <c r="C449" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D449" t="s">
         <v>591</v>
